--- a/code/quotas.xlsx
+++ b/code/quotas.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Feuil2_2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="59">
   <si>
     <t xml:space="preserve">farmer</t>
   </si>
@@ -173,30 +174,43 @@
     <t xml:space="preserve">socio-professional</t>
   </si>
   <si>
+    <t xml:space="preserve">Quota (+10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size of town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education</t>
+  </si>
+  <si>
     <t xml:space="preserve">Population +10%</t>
   </si>
   <si>
-    <t xml:space="preserve">region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size of town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
+    <t xml:space="preserve">En trop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quota ajusté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quota +10% ajusté</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -309,7 +323,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,6 +364,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,7 +384,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -451,14 +473,14 @@
   <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="A23 C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,19 +924,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,48 +1002,48 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <f aca="false">1.1*B2</f>
-        <v>0.0088</v>
-      </c>
-      <c r="C3" s="8" t="n">
-        <f aca="false">1.1*C2</f>
-        <v>0.0385</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <f aca="false">1.1*D2</f>
-        <v>0.1111</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <f aca="false">1.1*E2</f>
-        <v>0.1496</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <f aca="false">1.1*F2</f>
-        <v>0.165</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <f aca="false">1.1*G2</f>
-        <v>0.1254</v>
-      </c>
-      <c r="H3" s="8" t="n">
-        <f aca="false">1.1*H2</f>
-        <v>0.3575</v>
-      </c>
-      <c r="I3" s="8" t="n">
-        <f aca="false">1.1*I2</f>
-        <v>0.1419</v>
-      </c>
-      <c r="J3" s="9" t="n">
+      <c r="B3" s="10" t="n">
+        <f aca="false">ROUND(1100*B2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="n">
+        <f aca="false">ROUND(1100*C2,0)</f>
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <f aca="false">ROUND(1100*D2,0)</f>
+        <v>111</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <f aca="false">ROUND(1100*E2,0)</f>
+        <v>150</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <f aca="false">ROUND(1100*F2,0)</f>
+        <v>165</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <f aca="false">ROUND(1100*G2,0)</f>
+        <v>125</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <f aca="false">ROUND(1100*H2,0)</f>
+        <v>358</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <f aca="false">ROUND(1100*I2,0)</f>
+        <v>142</v>
+      </c>
+      <c r="J3" s="11" t="n">
         <f aca="false">SUM(B3:I3)</f>
-        <v>1.0978</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1032,34 +1055,34 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1067,39 +1090,39 @@
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="15" t="n">
         <f aca="false">1.0053*0.1892</f>
         <v>0.19020276</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="15" t="n">
         <f aca="false">1.0053*0.09188</f>
         <v>0.092366964</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="15" t="n">
         <f aca="false">1.0053*0.1278</f>
         <v>0.12847734</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="15" t="n">
         <f aca="false">1.0053*0.0925</f>
         <v>0.09299025</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="15" t="n">
         <f aca="false">1.0053*0.098014</f>
         <v>0.0985334742</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="15" t="n">
         <f aca="false">1.0053*0.1024</f>
         <v>0.10294272</v>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H6" s="15" t="n">
         <f aca="false">1.0053*0.0913</f>
         <v>0.09178389</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="15" t="n">
         <f aca="false">1.0053*0.1238</f>
         <v>0.12445614</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="15" t="n">
         <f aca="false">1.0053*0.0779</f>
         <v>0.07831287</v>
       </c>
@@ -1108,49 +1131,49 @@
         <v>1.0000664082</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <f aca="false">1.1*B6</f>
-        <v>0.209223036</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <f aca="false">1.1*C6</f>
-        <v>0.1016036604</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <f aca="false">1.1*D6</f>
-        <v>0.141325074</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <f aca="false">1.1*E6</f>
-        <v>0.102289275</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <f aca="false">1.1*F6</f>
-        <v>0.10838682162</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <f aca="false">1.1*G6</f>
-        <v>0.113236992</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <f aca="false">1.1*H6</f>
-        <v>0.100962279</v>
-      </c>
-      <c r="I7" s="8" t="n">
-        <f aca="false">1.1*I6</f>
-        <v>0.136901754</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <f aca="false">1.1*J6</f>
-        <v>0.086144157</v>
-      </c>
-      <c r="K7" s="9" t="n">
+      <c r="B7" s="10" t="n">
+        <f aca="false">ROUND(1100*B6,0)</f>
+        <v>209</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <f aca="false">ROUND(1100*C6,0)</f>
+        <v>102</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <f aca="false">ROUND(1100*D6,0)</f>
+        <v>141</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <f aca="false">ROUND(1100*E6,0)</f>
+        <v>102</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <f aca="false">ROUND(1100*F6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <f aca="false">ROUND(1100*G6,0)</f>
+        <v>113</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <f aca="false">ROUND(1100*H6,0)</f>
+        <v>101</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <f aca="false">ROUND(1100*I6,0)</f>
+        <v>137</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <f aca="false">ROUND(1100*J6,0)</f>
+        <v>86</v>
+      </c>
+      <c r="K7" s="11" t="n">
         <f aca="false">SUM(B7:J7)</f>
-        <v>1.10007304902</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,22 +1188,22 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>-20</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="16" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="9"/>
@@ -1215,33 +1238,33 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <f aca="false">1.1*B10</f>
-        <v>0.23826</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <f aca="false">1.1*C10</f>
-        <v>0.1881</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <f aca="false">1.1*D10</f>
-        <v>0.15488</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <f aca="false">1.1*E10</f>
-        <v>0.33913</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <f aca="false">1.1*F10</f>
-        <v>0.17963</v>
-      </c>
-      <c r="G11" s="9" t="n">
+      <c r="B11" s="10" t="n">
+        <f aca="false">ROUND(1100*B10,0)</f>
+        <v>238</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <f aca="false">ROUND(1100*C10,0)</f>
+        <v>188</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <f aca="false">ROUND(1100*D10,0)</f>
+        <v>155</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <f aca="false">ROUND(1100*E10,0)</f>
+        <v>339</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <f aca="false">ROUND(1100*F10,0)</f>
+        <v>180</v>
+      </c>
+      <c r="G11" s="11" t="n">
         <f aca="false">SUM(B11:F11)</f>
-        <v>1.1</v>
+        <v>1100</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1259,13 +1282,13 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="9"/>
@@ -1286,7 +1309,10 @@
       <c r="C14" s="8" t="n">
         <v>0.484</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="n">
+        <f aca="false">SUM(B14:C14)</f>
+        <v>1</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1294,19 +1320,22 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <f aca="false">1.1*B14</f>
-        <v>0.5676</v>
-      </c>
-      <c r="C15" s="8" t="n">
-        <f aca="false">1.1*C14</f>
-        <v>0.5324</v>
-      </c>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10" t="n">
+        <f aca="false">ROUND(1100*B14,0)</f>
+        <v>568</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <f aca="false">ROUND(1100*C14,0)</f>
+        <v>532</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <f aca="false">SUM(B15:C15)</f>
+        <v>1100</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1326,22 +1355,22 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="16" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="9"/>
@@ -1376,33 +1405,33 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="8" t="n">
-        <f aca="false">1.1*B18</f>
-        <v>0.132</v>
-      </c>
-      <c r="C19" s="8" t="n">
-        <f aca="false">1.1*C18</f>
-        <v>0.165</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <f aca="false">1.1*D18</f>
-        <v>0.264</v>
-      </c>
-      <c r="E19" s="8" t="n">
-        <f aca="false">1.1*E18</f>
-        <v>0.264</v>
-      </c>
-      <c r="F19" s="8" t="n">
-        <f aca="false">1.1*F18</f>
-        <v>0.275</v>
-      </c>
-      <c r="G19" s="9" t="n">
+      <c r="B19" s="10" t="n">
+        <f aca="false">ROUND(1100*B18,0)</f>
+        <v>132</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <f aca="false">ROUND(1100*C18,0)</f>
+        <v>165</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <f aca="false">ROUND(1100*D18,0)</f>
+        <v>264</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <f aca="false">ROUND(1100*E18,0)</f>
+        <v>264</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <f aca="false">ROUND(1100*F18,0)</f>
+        <v>275</v>
+      </c>
+      <c r="G19" s="11" t="n">
         <f aca="false">SUM(B19:F19)</f>
-        <v>1.1</v>
+        <v>1100</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1420,19 +1449,19 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="9"/>
@@ -1466,109 +1495,119 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="8" t="n">
-        <f aca="false">B22*1.1</f>
-        <v>0.319</v>
-      </c>
-      <c r="C23" s="8" t="n">
-        <f aca="false">C22*1.1</f>
-        <v>0.2728</v>
-      </c>
-      <c r="D23" s="8" t="n">
-        <f aca="false">D22*1.1</f>
-        <v>0.1859</v>
-      </c>
-      <c r="E23" s="8" t="n">
-        <f aca="false">E22*1.1</f>
-        <v>0.3223</v>
-      </c>
-      <c r="F23" s="9" t="n">
+      <c r="B23" s="10" t="n">
+        <f aca="false">ROUND(1100*B22,0)</f>
+        <v>319</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <f aca="false">ROUND(1100*C22,0)</f>
+        <v>273</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <f aca="false">ROUND(1100*D22,0)</f>
+        <v>186</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <f aca="false">ROUND(1100*E22,0)</f>
+        <v>322</v>
+      </c>
+      <c r="F23" s="11" t="n">
         <f aca="false">SUM(B23:E23)</f>
-        <v>1.1</v>
+        <v>1100</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
-      <c r="B27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
-      <c r="B28" s="4" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D28" s="4" t="n">
-        <v>2013</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>2007</v>
-      </c>
-      <c r="F28" s="4" t="n">
-        <v>2019</v>
-      </c>
-      <c r="G28" s="4" t="n">
-        <v>2019</v>
-      </c>
-      <c r="H28" s="4" t="n">
-        <v>2016</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
@@ -1580,24 +1619,1286 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
-    <hyperlink ref="C27" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
-    <hyperlink ref="E27" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
-    <hyperlink ref="F27" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
-    <hyperlink ref="G27" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
-    <hyperlink ref="H27" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
+    <hyperlink ref="B26" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
+    <hyperlink ref="C26" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
+    <hyperlink ref="E26" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
+    <hyperlink ref="F26" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
+    <hyperlink ref="G26" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
+    <hyperlink ref="H26" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="1" sqref="A23 F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.65"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <f aca="false">SUM(B2:I2)</f>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <f aca="false">1.1*B2</f>
+        <v>0.0088</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <f aca="false">1.1*C2</f>
+        <v>0.0385</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <f aca="false">1.1*D2</f>
+        <v>0.1111</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <f aca="false">1.1*E2</f>
+        <v>0.1496</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <f aca="false">1.1*F2</f>
+        <v>0.165</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <f aca="false">1.1*G2</f>
+        <v>0.1254</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <f aca="false">1.1*H2</f>
+        <v>0.3575</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <f aca="false">1.1*I2</f>
+        <v>0.1419</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <f aca="false">SUM(B3:I3)</f>
+        <v>1.0978</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11" t="n">
+        <f aca="false">SUM(B4:I4)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <f aca="false">1000*B2+B4</f>
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <f aca="false">1000*C2+C4</f>
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <f aca="false">1000*D2+D4</f>
+        <v>101</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <f aca="false">1000*E2+E4</f>
+        <v>136</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <f aca="false">1000*F2+F4</f>
+        <v>150</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <f aca="false">1000*G2+G4</f>
+        <v>114</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <f aca="false">1000*H2+H4</f>
+        <v>325</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <f aca="false">1000*I2+I4</f>
+        <v>129</v>
+      </c>
+      <c r="J5" s="11" t="n">
+        <f aca="false">SUM(B5:I5)</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <f aca="false">ROUND(1100*B2+B4,0)</f>
+        <v>31</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <f aca="false">ROUND(1100*C2+C4,0)</f>
+        <v>39</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <f aca="false">ROUND(1100*D2+D4,0)</f>
+        <v>111</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <f aca="false">ROUND(1100*E2+E4,0)</f>
+        <v>150</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <f aca="false">ROUND(1100*F2+F4,0)</f>
+        <v>165</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <f aca="false">ROUND(1100*G2+G4,0)</f>
+        <v>125</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <f aca="false">ROUND(1100*H2+H4,0)</f>
+        <v>358</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <f aca="false">ROUND(1100*I2+I4,0)</f>
+        <v>142</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <f aca="false">SUM(B6:I6)</f>
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="15" t="n">
+        <f aca="false">1.0053*0.1892</f>
+        <v>0.19020276</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <f aca="false">1.0053*0.09188</f>
+        <v>0.092366964</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <f aca="false">1.0053*0.1278</f>
+        <v>0.12847734</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <f aca="false">1.0053*0.0925</f>
+        <v>0.09299025</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <f aca="false">1.0053*0.098014</f>
+        <v>0.0985334742</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <f aca="false">1.0053*0.1024</f>
+        <v>0.10294272</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <f aca="false">1.0053*0.0913</f>
+        <v>0.09178389</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <f aca="false">1.0053*0.1238</f>
+        <v>0.12445614</v>
+      </c>
+      <c r="J9" s="15" t="n">
+        <f aca="false">1.0053*0.0779</f>
+        <v>0.07831287</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <f aca="false">SUM(B9:J9)</f>
+        <v>1.0000664082</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <f aca="false">1.1*B9</f>
+        <v>0.209223036</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <f aca="false">1.1*C9</f>
+        <v>0.1016036604</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <f aca="false">1.1*D9</f>
+        <v>0.141325074</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <f aca="false">1.1*E9</f>
+        <v>0.102289275</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <f aca="false">1.1*F9</f>
+        <v>0.10838682162</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <f aca="false">1.1*G9</f>
+        <v>0.113236992</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <f aca="false">1.1*H9</f>
+        <v>0.100962279</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <f aca="false">1.1*I9</f>
+        <v>0.136901754</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <f aca="false">1.1*J9</f>
+        <v>0.086144157</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <f aca="false">SUM(B10:J10)</f>
+        <v>1.10007304902</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11" t="n">
+        <f aca="false">SUM(B11:J11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <f aca="false">ROUND(1000*B9,0)</f>
+        <v>190</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <f aca="false">ROUND(1000*C9,0)</f>
+        <v>92</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <f aca="false">ROUND(1000*D9,0)</f>
+        <v>128</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <f aca="false">ROUND(1000*E9,0)</f>
+        <v>93</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <f aca="false">ROUND(1000*F9,0)</f>
+        <v>99</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <f aca="false">ROUND(1000*G9,0)</f>
+        <v>103</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <f aca="false">ROUND(1000*H9,0)</f>
+        <v>92</v>
+      </c>
+      <c r="I12" s="10" t="n">
+        <f aca="false">ROUND(1000*I9,0)</f>
+        <v>124</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <f aca="false">ROUND(1000*J9,0)</f>
+        <v>78</v>
+      </c>
+      <c r="K12" s="11" t="n">
+        <f aca="false">SUM(B12:J12)</f>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <f aca="false">ROUND(1100*B9,0)+B11</f>
+        <v>209</v>
+      </c>
+      <c r="C13" s="10" t="n">
+        <f aca="false">ROUND(1100*C9,0)+C11</f>
+        <v>102</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <f aca="false">ROUND(1100*D9,0)+D11</f>
+        <v>141</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <f aca="false">ROUND(1100*E9,0)+E11</f>
+        <v>102</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <f aca="false">ROUND(1100*F9,0)+F11</f>
+        <v>108</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <f aca="false">ROUND(1100*G9,0)+G11</f>
+        <v>113</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <f aca="false">ROUND(1100*H9,0)+H11</f>
+        <v>102</v>
+      </c>
+      <c r="I13" s="10" t="n">
+        <f aca="false">ROUND(1100*I9,0)+I11</f>
+        <v>137</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <f aca="false">ROUND(1100*J9,0)+J11</f>
+        <v>86</v>
+      </c>
+      <c r="K13" s="11" t="n">
+        <f aca="false">SUM(B13:J13)</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>0.2166</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>0.1408</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>0.3083</v>
+      </c>
+      <c r="F16" s="8" t="n">
+        <v>0.1633</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <f aca="false">SUM(B16:F16)</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <f aca="false">1.1*B16</f>
+        <v>0.23826</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <f aca="false">1.1*C16</f>
+        <v>0.1881</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <f aca="false">1.1*D16</f>
+        <v>0.15488</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <f aca="false">1.1*E16</f>
+        <v>0.33913</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <f aca="false">1.1*F16</f>
+        <v>0.17963</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <f aca="false">SUM(B17:F17)</f>
+        <v>1.1</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11" t="n">
+        <f aca="false">SUM(B18:F18)</f>
+        <v>22</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <f aca="false">ROUND(1000*B16,0)+B18</f>
+        <v>234</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <f aca="false">ROUND(1000*C16,0)+C18</f>
+        <v>171</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <f aca="false">ROUND(1000*D16,0)+D18</f>
+        <v>142</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <f aca="false">ROUND(1000*E16,0)+E18</f>
+        <v>312</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <f aca="false">ROUND(1000*F16,0)+F18</f>
+        <v>163</v>
+      </c>
+      <c r="G19" s="11" t="n">
+        <f aca="false">SUM(B19:F19)</f>
+        <v>1022</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <f aca="false">ROUND(1100*B16,0)+B18</f>
+        <v>255</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <f aca="false">ROUND(1100*C16,0)+C18</f>
+        <v>188</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <f aca="false">ROUND(1100*D16,0)+D18</f>
+        <v>156</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <f aca="false">ROUND(1100*E16,0)+E18</f>
+        <v>343</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <f aca="false">ROUND(1100*F16,0)+F18</f>
+        <v>180</v>
+      </c>
+      <c r="G20" s="11" t="n">
+        <f aca="false">SUM(B20:F20)</f>
+        <v>1122</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <f aca="false">SUM(B23:C23)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="8" t="n">
+        <f aca="false">1.1*B23</f>
+        <v>0.5676</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <f aca="false">1.1*C23</f>
+        <v>0.5324</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <f aca="false">SUM(B24:C24)</f>
+        <v>1.1</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" s="11" t="n">
+        <f aca="false">SUM(B25:C25)</f>
+        <v>22</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <f aca="false">ROUND(1000*B23,0)+B25</f>
+        <v>532</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <f aca="false">ROUND(1000*C23,0)+C25</f>
+        <v>490</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <f aca="false">SUM(B26:C26)</f>
+        <v>1022</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <f aca="false">ROUND(1100*B23,0)+B25</f>
+        <v>584</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <f aca="false">ROUND(1100*C23,0)+C25</f>
+        <v>538</v>
+      </c>
+      <c r="D27" s="11" t="n">
+        <f aca="false">SUM(B27:C27)</f>
+        <v>1122</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G30" s="9" t="n">
+        <f aca="false">SUM(B30:F30)</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="8" t="n">
+        <f aca="false">1.1*B30</f>
+        <v>0.132</v>
+      </c>
+      <c r="C31" s="8" t="n">
+        <f aca="false">1.1*C30</f>
+        <v>0.165</v>
+      </c>
+      <c r="D31" s="8" t="n">
+        <f aca="false">1.1*D30</f>
+        <v>0.264</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <f aca="false">1.1*E30</f>
+        <v>0.264</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <f aca="false">1.1*F30</f>
+        <v>0.275</v>
+      </c>
+      <c r="G31" s="9" t="n">
+        <f aca="false">SUM(B31:F31)</f>
+        <v>1.1</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <f aca="false">SUM(B32:F32)</f>
+        <v>22</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="10" t="n">
+        <f aca="false">ROUND(1000*B30,0)+B32</f>
+        <v>124</v>
+      </c>
+      <c r="C33" s="10" t="n">
+        <f aca="false">ROUND(1000*C30,0)+C32</f>
+        <v>154</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <f aca="false">ROUND(1000*D30,0)+D32</f>
+        <v>249</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <f aca="false">ROUND(1000*E30,0)+E32</f>
+        <v>243</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <f aca="false">ROUND(1000*F30,0)+F32</f>
+        <v>252</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <f aca="false">SUM(B33:F33)</f>
+        <v>1022</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="10" t="n">
+        <f aca="false">ROUND(1100*B30,0)+B32</f>
+        <v>136</v>
+      </c>
+      <c r="C34" s="10" t="n">
+        <f aca="false">ROUND(1100*C30,0)+C32</f>
+        <v>169</v>
+      </c>
+      <c r="D34" s="10" t="n">
+        <f aca="false">ROUND(1100*D30,0)+D32</f>
+        <v>273</v>
+      </c>
+      <c r="E34" s="10" t="n">
+        <f aca="false">ROUND(1100*E30,0)+E32</f>
+        <v>267</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <f aca="false">ROUND(1100*F30,0)+F32</f>
+        <v>277</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <f aca="false">SUM(B34:F34)</f>
+        <v>1122</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="D37" s="8" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <f aca="false">SUM(B37:E37)</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="8" t="n">
+        <f aca="false">B37*1.1</f>
+        <v>0.319</v>
+      </c>
+      <c r="C38" s="8" t="n">
+        <f aca="false">C37*1.1</f>
+        <v>0.2728</v>
+      </c>
+      <c r="D38" s="8" t="n">
+        <f aca="false">D37*1.1</f>
+        <v>0.1859</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <f aca="false">E37*1.1</f>
+        <v>0.3223</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <f aca="false">SUM(B38:E38)</f>
+        <v>1.1</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C39" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" s="11" t="n">
+        <f aca="false">SUM(B39:E39)</f>
+        <v>22</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="10" t="n">
+        <f aca="false">ROUND(1000*B37,0)+B39</f>
+        <v>297</v>
+      </c>
+      <c r="C40" s="10" t="n">
+        <f aca="false">ROUND(1000*C37,0)+C39</f>
+        <v>253</v>
+      </c>
+      <c r="D40" s="10" t="n">
+        <f aca="false">ROUND(1000*D37,0)+D39</f>
+        <v>175</v>
+      </c>
+      <c r="E40" s="10" t="n">
+        <f aca="false">ROUND(1000*E37,0)+E39</f>
+        <v>297</v>
+      </c>
+      <c r="F40" s="11" t="n">
+        <f aca="false">SUM(B40:E40)</f>
+        <v>1022</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="11" t="n">
+        <f aca="false">ROUND(1100*B37,0)+B39</f>
+        <v>326</v>
+      </c>
+      <c r="C41" s="11" t="n">
+        <f aca="false">ROUND(1100*C37,0)+C39</f>
+        <v>278</v>
+      </c>
+      <c r="D41" s="11" t="n">
+        <f aca="false">ROUND(1100*D37,0)+D39</f>
+        <v>192</v>
+      </c>
+      <c r="E41" s="11" t="n">
+        <f aca="false">ROUND(1100*E37,0)+E39</f>
+        <v>326</v>
+      </c>
+      <c r="F41" s="11" t="n">
+        <f aca="false">SUM(B41:E41)</f>
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1"/>
+      <c r="B44" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1"/>
+      <c r="B45" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>2007</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="H45" s="4" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B44" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
+    <hyperlink ref="C44" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
+    <hyperlink ref="E44" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
+    <hyperlink ref="F44" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
+    <hyperlink ref="G44" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
+    <hyperlink ref="H44" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/code/quotas.xlsx
+++ b/code/quotas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="60">
   <si>
     <t xml:space="preserve">farmer</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">Quota (+10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quota (+20%)</t>
   </si>
   <si>
     <t xml:space="preserve">region</t>
@@ -212,7 +215,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -258,6 +261,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -323,7 +334,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -372,6 +383,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -394,13 +409,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -473,14 +488,12 @@
   <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="A23 C12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,17 +940,13 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,253 +1053,276 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B4" s="12" t="n">
+        <f aca="false">ROUND(1200*B2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="n">
+        <f aca="false">ROUND(1200*C2,0)</f>
+        <v>42</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <f aca="false">ROUND(1200*D2,0)</f>
+        <v>121</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <f aca="false">ROUND(1200*E2,0)</f>
+        <v>163</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <f aca="false">ROUND(1200*F2,0)</f>
+        <v>180</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <f aca="false">ROUND(1200*G2,0)</f>
+        <v>137</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <f aca="false">ROUND(1200*H2,0)</f>
+        <v>390</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <f aca="false">ROUND(1200*I2,0)</f>
+        <v>155</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <f aca="false">ROUND(1200*J2,0)</f>
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J6" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="15" t="n">
+      <c r="B7" s="16" t="n">
         <f aca="false">1.0053*0.1892</f>
         <v>0.19020276</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C7" s="16" t="n">
         <f aca="false">1.0053*0.09188</f>
         <v>0.092366964</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D7" s="16" t="n">
         <f aca="false">1.0053*0.1278</f>
         <v>0.12847734</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E7" s="16" t="n">
         <f aca="false">1.0053*0.0925</f>
         <v>0.09299025</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F7" s="16" t="n">
         <f aca="false">1.0053*0.098014</f>
         <v>0.0985334742</v>
       </c>
-      <c r="G6" s="15" t="n">
+      <c r="G7" s="16" t="n">
         <f aca="false">1.0053*0.1024</f>
         <v>0.10294272</v>
       </c>
-      <c r="H6" s="15" t="n">
+      <c r="H7" s="16" t="n">
         <f aca="false">1.0053*0.0913</f>
         <v>0.09178389</v>
       </c>
-      <c r="I6" s="15" t="n">
+      <c r="I7" s="16" t="n">
         <f aca="false">1.0053*0.1238</f>
         <v>0.12445614</v>
       </c>
-      <c r="J6" s="15" t="n">
+      <c r="J7" s="16" t="n">
         <f aca="false">1.0053*0.0779</f>
         <v>0.07831287</v>
       </c>
-      <c r="K6" s="9" t="n">
-        <f aca="false">SUM(B6:J6)</f>
+      <c r="K7" s="9" t="n">
+        <f aca="false">SUM(B7:J7)</f>
         <v>1.0000664082</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="10" t="n">
-        <f aca="false">ROUND(1100*B6,0)</f>
+      <c r="B8" s="10" t="n">
+        <f aca="false">ROUND(1100*B7,0)</f>
         <v>209</v>
       </c>
-      <c r="C7" s="10" t="n">
-        <f aca="false">ROUND(1100*C6,0)</f>
+      <c r="C8" s="10" t="n">
+        <f aca="false">ROUND(1100*C7,0)</f>
         <v>102</v>
       </c>
-      <c r="D7" s="10" t="n">
-        <f aca="false">ROUND(1100*D6,0)</f>
+      <c r="D8" s="10" t="n">
+        <f aca="false">ROUND(1100*D7,0)</f>
         <v>141</v>
       </c>
-      <c r="E7" s="10" t="n">
-        <f aca="false">ROUND(1100*E6,0)</f>
+      <c r="E8" s="10" t="n">
+        <f aca="false">ROUND(1100*E7,0)</f>
         <v>102</v>
       </c>
-      <c r="F7" s="10" t="n">
-        <f aca="false">ROUND(1100*F6,0)</f>
+      <c r="F8" s="10" t="n">
+        <f aca="false">ROUND(1100*F7,0)</f>
         <v>108</v>
       </c>
-      <c r="G7" s="10" t="n">
-        <f aca="false">ROUND(1100*G6,0)</f>
+      <c r="G8" s="10" t="n">
+        <f aca="false">ROUND(1100*G7,0)</f>
         <v>113</v>
       </c>
-      <c r="H7" s="10" t="n">
-        <f aca="false">ROUND(1100*H6,0)</f>
+      <c r="H8" s="10" t="n">
+        <f aca="false">ROUND(1100*H7,0)</f>
         <v>101</v>
       </c>
-      <c r="I7" s="10" t="n">
-        <f aca="false">ROUND(1100*I6,0)</f>
+      <c r="I8" s="10" t="n">
+        <f aca="false">ROUND(1100*I7,0)</f>
         <v>137</v>
       </c>
-      <c r="J7" s="10" t="n">
-        <f aca="false">ROUND(1100*J6,0)</f>
+      <c r="J8" s="10" t="n">
+        <f aca="false">ROUND(1100*J7,0)</f>
         <v>86</v>
       </c>
-      <c r="K7" s="11" t="n">
-        <f aca="false">SUM(B7:J7)</f>
+      <c r="K8" s="11" t="n">
+        <f aca="false">SUM(B8:J8)</f>
         <v>1099</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v>0.2166</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>0.1408</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>0.3083</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>0.1633</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <f aca="false">SUM(B10:F10)</f>
-        <v>1</v>
-      </c>
+      <c r="A10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="n">
+        <v>-20</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="10" t="n">
-        <f aca="false">ROUND(1100*B10,0)</f>
-        <v>238</v>
-      </c>
-      <c r="C11" s="10" t="n">
-        <f aca="false">ROUND(1100*C10,0)</f>
-        <v>188</v>
-      </c>
-      <c r="D11" s="10" t="n">
-        <f aca="false">ROUND(1100*D10,0)</f>
-        <v>155</v>
-      </c>
-      <c r="E11" s="10" t="n">
-        <f aca="false">ROUND(1100*E10,0)</f>
-        <v>339</v>
-      </c>
-      <c r="F11" s="10" t="n">
-        <f aca="false">ROUND(1100*F10,0)</f>
-        <v>180</v>
-      </c>
-      <c r="G11" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>0.2166</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>0.1408</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>0.3083</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>0.1633</v>
+      </c>
+      <c r="G11" s="9" t="n">
         <f aca="false">SUM(B11:F11)</f>
-        <v>1100</v>
+        <v>1</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <f aca="false">ROUND(1100*B11,0)</f>
+        <v>238</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <f aca="false">ROUND(1100*C11,0)</f>
+        <v>188</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <f aca="false">ROUND(1100*D11,0)</f>
+        <v>155</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <f aca="false">ROUND(1100*E11,0)</f>
+        <v>339</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <f aca="false">ROUND(1100*F11,0)</f>
+        <v>180</v>
+      </c>
+      <c r="G12" s="11" t="n">
+        <f aca="false">SUM(B12:F12)</f>
+        <v>1100</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1299,20 +1331,17 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="8" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="C14" s="8" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="D14" s="9" t="n">
-        <f aca="false">SUM(B14:C14)</f>
-        <v>1</v>
-      </c>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -1322,19 +1351,17 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="10" t="n">
-        <f aca="false">ROUND(1100*B14,0)</f>
-        <v>568</v>
-      </c>
-      <c r="C15" s="10" t="n">
-        <f aca="false">ROUND(1100*C14,0)</f>
-        <v>532</v>
-      </c>
-      <c r="D15" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="D15" s="9" t="n">
         <f aca="false">SUM(B15:C15)</f>
-        <v>1100</v>
+        <v>1</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1343,10 +1370,22 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <f aca="false">ROUND(1100*B15,0)</f>
+        <v>568</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <f aca="false">ROUND(1100*C15,0)</f>
+        <v>532</v>
+      </c>
+      <c r="D16" s="11" t="n">
+        <f aca="false">SUM(B16:C16)</f>
+        <v>1100</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1354,275 +1393,366 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>27</v>
-      </c>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <f aca="false">ROUND(1200*B15,0)</f>
+        <v>619</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <f aca="false">ROUND(1200*C15,0)</f>
+        <v>581</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <f aca="false">ROUND(1200*D15,0)</f>
+        <v>1200</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <f aca="false">SUM(B18:F18)</f>
-        <v>1</v>
-      </c>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="10" t="n">
-        <f aca="false">ROUND(1100*B18,0)</f>
-        <v>132</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <f aca="false">ROUND(1100*C18,0)</f>
-        <v>165</v>
-      </c>
-      <c r="D19" s="10" t="n">
-        <f aca="false">ROUND(1100*D18,0)</f>
-        <v>264</v>
-      </c>
-      <c r="E19" s="10" t="n">
-        <f aca="false">ROUND(1100*E18,0)</f>
-        <v>264</v>
-      </c>
-      <c r="F19" s="10" t="n">
-        <f aca="false">ROUND(1100*F18,0)</f>
-        <v>275</v>
-      </c>
-      <c r="G19" s="11" t="n">
-        <f aca="false">SUM(B19:F19)</f>
-        <v>1100</v>
-      </c>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F20" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <f aca="false">SUM(B20:F20)</f>
+        <v>1</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <f aca="false">ROUND(1100*B20,0)</f>
+        <v>132</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <f aca="false">ROUND(1100*C20,0)</f>
+        <v>165</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <f aca="false">ROUND(1100*D20,0)</f>
+        <v>264</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <f aca="false">ROUND(1100*E20,0)</f>
+        <v>264</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <f aca="false">ROUND(1100*F20,0)</f>
+        <v>275</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <f aca="false">SUM(B21:F21)</f>
+        <v>1100</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="8" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="C22" s="8" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="E22" s="8" t="n">
-        <v>0.293</v>
-      </c>
-      <c r="F22" s="9" t="n">
-        <f aca="false">SUM(B22:E22)</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <f aca="false">ROUND(1200*B20,0)</f>
+        <v>144</v>
+      </c>
+      <c r="C22" s="10" t="n">
+        <f aca="false">ROUND(1200*C20,0)</f>
+        <v>180</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <f aca="false">ROUND(1200*D20,0)</f>
+        <v>288</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <f aca="false">ROUND(1200*E20,0)</f>
+        <v>288</v>
+      </c>
+      <c r="F22" s="12" t="n">
+        <f aca="false">ROUND(1200*F20,0)</f>
+        <v>300</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <f aca="false">ROUND(1200*G20,0)</f>
+        <v>1200</v>
+      </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="10" t="n">
-        <f aca="false">ROUND(1100*B22,0)</f>
-        <v>319</v>
-      </c>
-      <c r="C23" s="10" t="n">
-        <f aca="false">ROUND(1100*C22,0)</f>
-        <v>273</v>
-      </c>
-      <c r="D23" s="10" t="n">
-        <f aca="false">ROUND(1100*D22,0)</f>
-        <v>186</v>
-      </c>
-      <c r="E23" s="10" t="n">
-        <f aca="false">ROUND(1100*E22,0)</f>
-        <v>322</v>
-      </c>
-      <c r="F23" s="11" t="n">
-        <f aca="false">SUM(B23:E23)</f>
-        <v>1100</v>
-      </c>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <f aca="false">SUM(B25:E25)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <f aca="false">ROUND(1100*B25,0)</f>
+        <v>319</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <f aca="false">ROUND(1100*C25,0)</f>
+        <v>273</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <f aca="false">ROUND(1100*D25,0)</f>
+        <v>186</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <f aca="false">ROUND(1100*E25,0)</f>
+        <v>322</v>
+      </c>
+      <c r="F26" s="11" t="n">
+        <f aca="false">SUM(B26:E26)</f>
+        <v>1100</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <f aca="false">ROUND(1200*B25,0)</f>
+        <v>348</v>
+      </c>
+      <c r="C27" s="12" t="n">
+        <f aca="false">ROUND(1200*C25,0)</f>
+        <v>298</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <f aca="false">ROUND(1200*D25,0)</f>
+        <v>203</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <f aca="false">ROUND(1200*E25,0)</f>
+        <v>352</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <f aca="false">ROUND(1200*F25,0)</f>
+        <v>1200</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="6" t="s">
+    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="4" t="n">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C31" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D31" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E31" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F31" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G31" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H31" s="4" t="n">
         <v>2016</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1639,12 +1769,12 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
-    <hyperlink ref="C26" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
-    <hyperlink ref="E26" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
-    <hyperlink ref="F26" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
-    <hyperlink ref="G26" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
-    <hyperlink ref="H26" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
+    <hyperlink ref="B30" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
+    <hyperlink ref="C30" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
+    <hyperlink ref="E30" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
+    <hyperlink ref="F30" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
+    <hyperlink ref="G30" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
+    <hyperlink ref="H30" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1664,17 +1794,13 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="1" sqref="A23 F26"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,7 +1867,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="n">
         <f aca="false">1.1*B2</f>
@@ -1782,7 +1908,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>22</v>
@@ -1801,7 +1927,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="10" t="n">
         <f aca="false">1000*B2+B4</f>
@@ -1842,7 +1968,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="10" t="n">
         <f aca="false">ROUND(1100*B2+B4,0)</f>
@@ -1893,34 +2019,34 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1928,39 +2054,39 @@
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="15" t="n">
+      <c r="B9" s="16" t="n">
         <f aca="false">1.0053*0.1892</f>
         <v>0.19020276</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="16" t="n">
         <f aca="false">1.0053*0.09188</f>
         <v>0.092366964</v>
       </c>
-      <c r="D9" s="15" t="n">
+      <c r="D9" s="16" t="n">
         <f aca="false">1.0053*0.1278</f>
         <v>0.12847734</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="16" t="n">
         <f aca="false">1.0053*0.0925</f>
         <v>0.09299025</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="16" t="n">
         <f aca="false">1.0053*0.098014</f>
         <v>0.0985334742</v>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G9" s="16" t="n">
         <f aca="false">1.0053*0.1024</f>
         <v>0.10294272</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="16" t="n">
         <f aca="false">1.0053*0.0913</f>
         <v>0.09178389</v>
       </c>
-      <c r="I9" s="15" t="n">
+      <c r="I9" s="16" t="n">
         <f aca="false">1.0053*0.1238</f>
         <v>0.12445614</v>
       </c>
-      <c r="J9" s="15" t="n">
+      <c r="J9" s="16" t="n">
         <f aca="false">1.0053*0.0779</f>
         <v>0.07831287</v>
       </c>
@@ -1971,7 +2097,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="8" t="n">
         <f aca="false">1.1*B9</f>
@@ -2016,7 +2142,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2036,7 +2162,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="10" t="n">
         <f aca="false">ROUND(1000*B9,0)</f>
@@ -2081,7 +2207,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="10" t="n">
         <f aca="false">ROUND(1100*B9,0)+B11</f>
@@ -2136,22 +2262,22 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="8" t="n">
         <v>-20</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="9"/>
@@ -2188,7 +2314,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="8" t="n">
         <f aca="false">1.1*B16</f>
@@ -2220,7 +2346,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>17</v>
@@ -2243,7 +2369,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="10" t="n">
         <f aca="false">ROUND(1000*B16,0)+B18</f>
@@ -2275,7 +2401,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="10" t="n">
         <f aca="false">ROUND(1100*B16,0)+B18</f>
@@ -2317,13 +2443,13 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="9"/>
@@ -2357,7 +2483,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="8" t="n">
         <f aca="false">1.1*B23</f>
@@ -2380,7 +2506,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>16</v>
@@ -2401,7 +2527,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="10" t="n">
         <f aca="false">ROUND(1000*B23,0)+B25</f>
@@ -2424,7 +2550,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="10" t="n">
         <f aca="false">ROUND(1100*B23,0)+B25</f>
@@ -2457,22 +2583,22 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="17" t="s">
         <v>27</v>
       </c>
       <c r="G29" s="9"/>
@@ -2509,7 +2635,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="8" t="n">
         <f aca="false">1.1*B30</f>
@@ -2541,7 +2667,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>4</v>
@@ -2568,7 +2694,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" s="10" t="n">
         <f aca="false">ROUND(1000*B30,0)+B32</f>
@@ -2600,7 +2726,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" s="10" t="n">
         <f aca="false">ROUND(1100*B30,0)+B32</f>
@@ -2642,19 +2768,19 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="9"/>
@@ -2690,7 +2816,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="8" t="n">
         <f aca="false">B37*1.1</f>
@@ -2719,7 +2845,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="10" t="n">
         <v>7</v>
@@ -2744,7 +2870,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="10" t="n">
         <f aca="false">ROUND(1000*B37,0)+B39</f>
@@ -2773,7 +2899,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" s="11" t="n">
         <f aca="false">ROUND(1100*B37,0)+B39</f>

--- a/code/quotas.xlsx
+++ b/code/quotas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="73">
   <si>
     <t xml:space="preserve">farmer</t>
   </si>
@@ -190,6 +190,45 @@
   </si>
   <si>
     <t xml:space="preserve">education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pb: stats tirée de la population non scolarisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population ré-estimée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population &gt;= 15 ans scolarisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en proportion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;= 18 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proportion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population &gt;= 18 ans </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation &gt;= 15 avec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supérieur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max Brevet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP ou BEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation &gt;= 18 avec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion &gt;= 18 ans</t>
   </si>
   <si>
     <t xml:space="preserve">Population +10%</t>
@@ -215,7 +254,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -272,6 +311,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,7 +379,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,6 +449,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -491,7 +540,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
   </cols>
@@ -939,11 +988,11 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.49"/>
@@ -1569,7 +1618,9 @@
       <c r="E24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -1658,90 +1709,109 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="8" t="n">
+        <f aca="false">B25*(1-$H$34)+I37*$H$34</f>
+        <v>0.279022188235294</v>
+      </c>
+      <c r="C28" s="8" t="n">
+        <f aca="false">C25*(1-$H$34)+G37*$H$34</f>
+        <v>0.235872131764706</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <f aca="false">D25*(1-$H$34)+E37*$H$34</f>
+        <v>0.18479116</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <f aca="false">E25*(1-$H$34)+C37*$H$34</f>
+        <v>0.30031452</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <f aca="false">SUM(B28:E28)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="6" t="s">
+    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4" t="n">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="B32" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C32" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D32" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E32" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F32" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G32" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H32" s="4" t="n">
         <v>2016</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
@@ -1753,7 +1823,129 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>5725530</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0.10848</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>3446184</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="18" t="n">
+        <v>0.06836</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>50408986</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <f aca="false">C36/(C36+E36+G36+I36)</f>
+        <v>0.4</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">E36/(C36+E36+G36+I36)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">G36/(C36+E36+G36+I36)</f>
+        <v>0.0705882352941176</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <f aca="false">I36/(C36+E36+G36+I36)</f>
+        <v>0.129411764705882</v>
+      </c>
+    </row>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1769,12 +1961,12 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
-    <hyperlink ref="C30" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
-    <hyperlink ref="E30" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
-    <hyperlink ref="F30" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
-    <hyperlink ref="G30" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
-    <hyperlink ref="H30" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
+    <hyperlink ref="B31" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
+    <hyperlink ref="C31" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
+    <hyperlink ref="E31" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
+    <hyperlink ref="F31" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
+    <hyperlink ref="G31" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
+    <hyperlink ref="H31" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1797,7 +1989,7 @@
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.49"/>
@@ -1867,7 +2059,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B3" s="8" t="n">
         <f aca="false">1.1*B2</f>
@@ -1908,7 +2100,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>22</v>
@@ -1927,7 +2119,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B5" s="10" t="n">
         <f aca="false">1000*B2+B4</f>
@@ -1968,7 +2160,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B6" s="10" t="n">
         <f aca="false">ROUND(1100*B2+B4,0)</f>
@@ -2097,7 +2289,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B10" s="8" t="n">
         <f aca="false">1.1*B9</f>
@@ -2142,7 +2334,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2162,7 +2354,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B12" s="10" t="n">
         <f aca="false">ROUND(1000*B9,0)</f>
@@ -2207,7 +2399,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B13" s="10" t="n">
         <f aca="false">ROUND(1100*B9,0)+B11</f>
@@ -2314,7 +2506,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B17" s="8" t="n">
         <f aca="false">1.1*B16</f>
@@ -2346,7 +2538,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>17</v>
@@ -2369,7 +2561,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B19" s="10" t="n">
         <f aca="false">ROUND(1000*B16,0)+B18</f>
@@ -2401,7 +2593,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B20" s="10" t="n">
         <f aca="false">ROUND(1100*B16,0)+B18</f>
@@ -2483,7 +2675,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B24" s="8" t="n">
         <f aca="false">1.1*B23</f>
@@ -2506,7 +2698,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>16</v>
@@ -2527,7 +2719,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B26" s="10" t="n">
         <f aca="false">ROUND(1000*B23,0)+B25</f>
@@ -2550,7 +2742,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B27" s="10" t="n">
         <f aca="false">ROUND(1100*B23,0)+B25</f>
@@ -2635,7 +2827,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B31" s="8" t="n">
         <f aca="false">1.1*B30</f>
@@ -2667,7 +2859,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>4</v>
@@ -2694,7 +2886,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B33" s="10" t="n">
         <f aca="false">ROUND(1000*B30,0)+B32</f>
@@ -2726,7 +2918,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B34" s="10" t="n">
         <f aca="false">ROUND(1100*B30,0)+B32</f>
@@ -2816,7 +3008,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B38" s="8" t="n">
         <f aca="false">B37*1.1</f>
@@ -2845,7 +3037,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B39" s="10" t="n">
         <v>7</v>
@@ -2870,7 +3062,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B40" s="10" t="n">
         <f aca="false">ROUND(1000*B37,0)+B39</f>
@@ -2899,7 +3091,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B41" s="11" t="n">
         <f aca="false">ROUND(1100*B37,0)+B39</f>

--- a/code/quotas.xlsx
+++ b/code/quotas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="75">
   <si>
     <t xml:space="preserve">farmer</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t xml:space="preserve">pb: stats tirée de la population non scolarisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population utilisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population réel</t>
   </si>
   <si>
     <t xml:space="preserve">Population ré-estimée</t>
@@ -254,7 +260,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -311,12 +317,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -379,7 +379,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,10 +449,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -540,7 +536,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
   </cols>
@@ -989,10 +985,10 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.49"/>
@@ -1628,7 +1624,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B25" s="8" t="n">
         <v>0.29</v>
@@ -1653,27 +1649,23 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="10" t="n">
-        <f aca="false">ROUND(1100*B25,0)</f>
-        <v>319</v>
-      </c>
-      <c r="C26" s="10" t="n">
-        <f aca="false">ROUND(1100*C25,0)</f>
-        <v>273</v>
-      </c>
-      <c r="D26" s="10" t="n">
-        <f aca="false">ROUND(1100*D25,0)</f>
-        <v>186</v>
-      </c>
-      <c r="E26" s="10" t="n">
-        <f aca="false">ROUND(1100*E25,0)</f>
-        <v>322</v>
-      </c>
-      <c r="F26" s="11" t="n">
+        <v>58</v>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F26" s="9" t="n">
         <f aca="false">SUM(B26:E26)</f>
-        <v>1100</v>
+        <v>1</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -1682,214 +1674,214 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="10" t="n">
-        <f aca="false">ROUND(1200*B25,0)</f>
-        <v>348</v>
-      </c>
-      <c r="C27" s="12" t="n">
-        <f aca="false">ROUND(1200*C25,0)</f>
-        <v>298</v>
+        <f aca="false">ROUND(1100*B26,0)</f>
+        <v>331</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <f aca="false">ROUND(1100*C26,0)</f>
+        <v>271</v>
       </c>
       <c r="D27" s="10" t="n">
-        <f aca="false">ROUND(1200*D25,0)</f>
-        <v>203</v>
+        <f aca="false">ROUND(1100*D26,0)</f>
+        <v>185</v>
       </c>
       <c r="E27" s="10" t="n">
-        <f aca="false">ROUND(1200*E25,0)</f>
-        <v>352</v>
-      </c>
-      <c r="F27" s="10" t="n">
-        <f aca="false">ROUND(1200*F25,0)</f>
-        <v>1200</v>
+        <f aca="false">ROUND(1100*E26,0)</f>
+        <v>314</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <f aca="false">SUM(B27:E27)</f>
+        <v>1101</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="8" t="n">
-        <f aca="false">B25*(1-$H$34)+I37*$H$34</f>
-        <v>0.279022188235294</v>
-      </c>
-      <c r="C28" s="8" t="n">
-        <f aca="false">C25*(1-$H$34)+G37*$H$34</f>
-        <v>0.235872131764706</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <f aca="false">D25*(1-$H$34)+E37*$H$34</f>
-        <v>0.18479116</v>
-      </c>
-      <c r="E28" s="8" t="n">
-        <f aca="false">E25*(1-$H$34)+C37*$H$34</f>
-        <v>0.30031452</v>
-      </c>
-      <c r="F28" s="8" t="n">
-        <f aca="false">SUM(B28:E28)</f>
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B28" s="10" t="n">
+        <f aca="false">ROUND(1200*B26,0)</f>
+        <v>361</v>
+      </c>
+      <c r="C28" s="12" t="n">
+        <f aca="false">ROUND(1200*C26,0)</f>
+        <v>295</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <f aca="false">ROUND(1200*D26,0)</f>
+        <v>202</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <f aca="false">ROUND(1200*E26,0)</f>
+        <v>342</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <f aca="false">ROUND(1200*F26,0)</f>
+        <v>1200</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8" t="n">
+        <f aca="false">B26*(1-$H$35)+I38*$H$35</f>
+        <v>0.289270228235294</v>
+      </c>
+      <c r="C29" s="8" t="n">
+        <f aca="false">C26*(1-$H$35)+G38*$H$35</f>
+        <v>0.234008851764706</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <f aca="false">D26*(1-$H$35)+E38*$H$35</f>
+        <v>0.18385952</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <f aca="false">E26*(1-$H$35)+C38*$H$35</f>
+        <v>0.2928614</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <f aca="false">SUM(B29:E29)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="6" t="s">
+    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="B32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4" t="n">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C33" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D33" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E33" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F33" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G33" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H33" s="4" t="n">
         <v>2016</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="1" t="n">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1" t="n">
         <v>5725530</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="1" t="n">
+      <c r="C35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="1" t="n">
         <v>0.10848</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="1" t="n">
+      <c r="E35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="1" t="n">
         <v>3446184</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="18" t="n">
+      <c r="G35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="1" t="n">
         <v>0.06836</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="J34" s="0" t="n">
+      <c r="I35" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="0" t="n">
         <v>50408986</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>1700000</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1700000</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>550000</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1700000</v>
@@ -1901,13 +1893,13 @@
         <v>1700000</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>300000</v>
+        <v>1500000</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>550000</v>
@@ -1915,38 +1907,66 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C37" s="0" t="n">
-        <f aca="false">C36/(C36+E36+G36+I36)</f>
-        <v>0.4</v>
+        <v>1700000</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="0" t="n">
-        <f aca="false">E36/(C36+E36+G36+I36)</f>
+        <v>1700000</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <f aca="false">C37/(C37+E37+G37+I37)</f>
         <v>0.4</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <f aca="false">G36/(C36+E36+G36+I36)</f>
+      <c r="D38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">E37/(C37+E37+G37+I37)</f>
+        <v>0.4</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">G37/(C37+E37+G37+I37)</f>
         <v>0.0705882352941176</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <f aca="false">I36/(C36+E36+G36+I36)</f>
+      <c r="H38" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">I37/(C37+E37+G37+I37)</f>
         <v>0.129411764705882</v>
       </c>
     </row>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1961,12 +1981,12 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
-    <hyperlink ref="C31" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
-    <hyperlink ref="E31" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
-    <hyperlink ref="F31" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
-    <hyperlink ref="G31" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
-    <hyperlink ref="H31" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
+    <hyperlink ref="B32" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
+    <hyperlink ref="C32" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
+    <hyperlink ref="E32" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
+    <hyperlink ref="F32" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
+    <hyperlink ref="G32" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
+    <hyperlink ref="H32" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1989,7 +2009,7 @@
       <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.49"/>
@@ -2059,7 +2079,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="8" t="n">
         <f aca="false">1.1*B2</f>
@@ -2100,7 +2120,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>22</v>
@@ -2119,7 +2139,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B5" s="10" t="n">
         <f aca="false">1000*B2+B4</f>
@@ -2160,7 +2180,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B6" s="10" t="n">
         <f aca="false">ROUND(1100*B2+B4,0)</f>
@@ -2289,7 +2309,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="n">
         <f aca="false">1.1*B9</f>
@@ -2334,7 +2354,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2354,7 +2374,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B12" s="10" t="n">
         <f aca="false">ROUND(1000*B9,0)</f>
@@ -2399,7 +2419,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" s="10" t="n">
         <f aca="false">ROUND(1100*B9,0)+B11</f>
@@ -2506,7 +2526,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8" t="n">
         <f aca="false">1.1*B16</f>
@@ -2538,7 +2558,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" s="10" t="n">
         <v>17</v>
@@ -2561,7 +2581,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B19" s="10" t="n">
         <f aca="false">ROUND(1000*B16,0)+B18</f>
@@ -2593,7 +2613,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B20" s="10" t="n">
         <f aca="false">ROUND(1100*B16,0)+B18</f>
@@ -2675,7 +2695,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24" s="8" t="n">
         <f aca="false">1.1*B23</f>
@@ -2698,7 +2718,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" s="10" t="n">
         <v>16</v>
@@ -2719,7 +2739,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26" s="10" t="n">
         <f aca="false">ROUND(1000*B23,0)+B25</f>
@@ -2742,7 +2762,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" s="10" t="n">
         <f aca="false">ROUND(1100*B23,0)+B25</f>
@@ -2827,7 +2847,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" s="8" t="n">
         <f aca="false">1.1*B30</f>
@@ -2859,7 +2879,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" s="10" t="n">
         <v>4</v>
@@ -2886,7 +2906,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" s="10" t="n">
         <f aca="false">ROUND(1000*B30,0)+B32</f>
@@ -2918,7 +2938,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" s="10" t="n">
         <f aca="false">ROUND(1100*B30,0)+B32</f>
@@ -3008,7 +3028,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" s="8" t="n">
         <f aca="false">B37*1.1</f>
@@ -3037,7 +3057,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B39" s="10" t="n">
         <v>7</v>
@@ -3062,7 +3082,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B40" s="10" t="n">
         <f aca="false">ROUND(1000*B37,0)+B39</f>
@@ -3091,7 +3111,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B41" s="11" t="n">
         <f aca="false">ROUND(1100*B37,0)+B39</f>

--- a/code/quotas.xlsx
+++ b/code/quotas.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\conv_citoyenne\CCC\code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="7270" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Feuil2_2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2_2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,264 +28,246 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="75">
   <si>
-    <t xml:space="preserve">farmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">independent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">executive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intermediate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inactive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">woman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No diploma or Brevet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP or BEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sources:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">région</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taille agglo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taille agglo bis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sexe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diplôme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.insee.fr/fr/statistiques/2381478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">own calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.insee.fr/fr/statistiques/1280970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.insee.fr/fr/statistiques/2381474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socio-professional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quota (+10%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quota (+20%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size of town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pb: stats tirée de la population non scolarisée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population utilisé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population réel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population ré-estimée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population &gt;= 15 ans scolarisée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en proportion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;= 18 ans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proportion</t>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>executive</t>
+  </si>
+  <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>retired</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>IDF</t>
+  </si>
+  <si>
+    <t>Nord</t>
+  </si>
+  <si>
+    <t>Est</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Centre</t>
+  </si>
+  <si>
+    <t>Ouest</t>
+  </si>
+  <si>
+    <t>Occ</t>
+  </si>
+  <si>
+    <t>ARA</t>
+  </si>
+  <si>
+    <t>PACA</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>20-99</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-49</t>
+  </si>
+  <si>
+    <t>50-64</t>
+  </si>
+  <si>
+    <t>&gt;65</t>
+  </si>
+  <si>
+    <t>No diploma or Brevet</t>
+  </si>
+  <si>
+    <t>CAP or BEP</t>
+  </si>
+  <si>
+    <t>Bac</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>sources:</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>région</t>
+  </si>
+  <si>
+    <t>taille agglo</t>
+  </si>
+  <si>
+    <t>taille agglo bis</t>
+  </si>
+  <si>
+    <t>sexe</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>diplôme</t>
+  </si>
+  <si>
+    <t>https://www.insee.fr/fr/statistiques/2381478</t>
+  </si>
+  <si>
+    <t>https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion</t>
+  </si>
+  <si>
+    <t>own calculation</t>
+  </si>
+  <si>
+    <t>https://www.insee.fr/fr/statistiques/1280970</t>
+  </si>
+  <si>
+    <t>https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926</t>
+  </si>
+  <si>
+    <t>https://www.insee.fr/fr/statistiques/2381474</t>
+  </si>
+  <si>
+    <t>https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1</t>
+  </si>
+  <si>
+    <t>socio-professional</t>
+  </si>
+  <si>
+    <t>Quota (+10%)</t>
+  </si>
+  <si>
+    <t>Quota (+20%)</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>size of town</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>pb: stats tirée de la population non scolarisée</t>
+  </si>
+  <si>
+    <t>Population utilisé</t>
+  </si>
+  <si>
+    <t>Population réel</t>
+  </si>
+  <si>
+    <t>Population ré-estimée</t>
+  </si>
+  <si>
+    <t>Population &gt;= 15 ans scolarisée</t>
+  </si>
+  <si>
+    <t>en proportion</t>
+  </si>
+  <si>
+    <t>&gt;= 18 ans</t>
+  </si>
+  <si>
+    <t>proportion</t>
   </si>
   <si>
     <t xml:space="preserve">Population &gt;= 18 ans </t>
   </si>
   <si>
-    <t xml:space="preserve">Estimation &gt;= 15 avec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supérieur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max Brevet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP ou BEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimation &gt;= 18 avec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proportion &gt;= 18 ans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population +10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En trop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quota ajusté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quota +10% ajusté</t>
+    <t>Estimation &gt;= 15 avec</t>
+  </si>
+  <si>
+    <t>Supérieur</t>
+  </si>
+  <si>
+    <t>max Brevet</t>
+  </si>
+  <si>
+    <t>CAP ou BEP</t>
+  </si>
+  <si>
+    <t>Estimation &gt;= 18 avec</t>
+  </si>
+  <si>
+    <t>Proportion &gt;= 18 ans</t>
+  </si>
+  <si>
+    <t>Population +10%</t>
+  </si>
+  <si>
+    <t>En trop</t>
+  </si>
+  <si>
+    <t>Quota ajusté</t>
+  </si>
+  <si>
+    <t>Quota +10% ajusté</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -297,7 +283,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -311,12 +297,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,14 +321,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -351,117 +344,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -520,28 +465,302 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:38" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -597,7 +816,7 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="n">
+      <c r="T1" s="4">
         <v>-20</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -647,215 +866,215 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="5">
         <v>0.01</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="5">
         <v>0.04</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>0.1</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F2" s="5" t="n">
+      <c r="E2" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F2" s="5">
         <v>0.15</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="5">
         <v>0.11</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="5">
         <v>0.33</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="5">
         <v>0.13</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="5">
         <v>0.19</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="5">
         <v>0.09</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="5">
         <v>0.13</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="5">
         <v>0.09</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="5">
         <v>0.1</v>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="5">
         <v>0.1</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="5">
         <v>0.09</v>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="Q2" s="5">
         <v>0.12</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="R2" s="5">
         <v>0.08</v>
       </c>
-      <c r="S2" s="5" t="n">
+      <c r="S2" s="5">
         <v>0.22</v>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="5">
         <v>0.17</v>
       </c>
-      <c r="U2" s="5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="V2" s="5" t="n">
+      <c r="U2" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V2" s="5">
         <v>0.31</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="5">
         <v>0.16</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="5">
         <v>0.52</v>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="5">
         <v>0.48</v>
       </c>
-      <c r="Z2" s="5" t="n">
+      <c r="Z2" s="5">
         <v>0.12</v>
       </c>
-      <c r="AA2" s="5" t="n">
+      <c r="AA2" s="5">
         <v>0.15</v>
       </c>
-      <c r="AB2" s="5" t="n">
+      <c r="AB2" s="5">
         <v>0.24</v>
       </c>
-      <c r="AC2" s="5" t="n">
+      <c r="AC2" s="5">
         <v>0.24</v>
       </c>
-      <c r="AD2" s="5" t="n">
+      <c r="AD2" s="5">
         <v>0.25</v>
       </c>
-      <c r="AE2" s="5" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF2" s="5" t="n">
+      <c r="AE2" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF2" s="5">
         <v>0.25</v>
       </c>
-      <c r="AG2" s="5" t="n">
+      <c r="AG2" s="5">
         <v>0.17</v>
       </c>
-      <c r="AH2" s="5" t="n">
-        <v>0.29</v>
+      <c r="AH2" s="5">
+        <v>0.28999999999999998</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="5">
         <v>0.01</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>0.04</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>0.09</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="E3" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F3" s="5">
         <v>0.16</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="5">
         <v>0.13</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="5">
         <v>0.33</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="5">
         <v>0.11</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="5">
         <v>0.17</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="5">
         <v>0.1</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="5">
         <v>0.12</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="5">
         <v>0.09</v>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="N3" s="5">
         <v>0.12</v>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="O3" s="5">
         <v>0.1</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="P3" s="5">
         <v>0.08</v>
       </c>
-      <c r="Q3" s="5" t="n">
+      <c r="Q3" s="5">
         <v>0.13</v>
       </c>
-      <c r="R3" s="5" t="n">
+      <c r="R3" s="5">
         <v>0.08</v>
       </c>
-      <c r="S3" s="5" t="n">
+      <c r="S3" s="5">
         <v>0.24</v>
       </c>
-      <c r="T3" s="5" t="n">
+      <c r="T3" s="5">
         <v>0.18</v>
       </c>
-      <c r="U3" s="5" t="n">
+      <c r="U3" s="5">
         <v>0.13</v>
       </c>
-      <c r="V3" s="5" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="W3" s="5" t="n">
+      <c r="V3" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W3" s="5">
         <v>0.15</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="5">
         <v>0.53</v>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="5">
         <v>0.47</v>
       </c>
-      <c r="Z3" s="5" t="n">
+      <c r="Z3" s="5">
         <v>0.11</v>
       </c>
-      <c r="AA3" s="5" t="n">
+      <c r="AA3" s="5">
         <v>0.11</v>
       </c>
-      <c r="AB3" s="5" t="n">
+      <c r="AB3" s="5">
         <v>0.24</v>
       </c>
-      <c r="AC3" s="5" t="n">
+      <c r="AC3" s="5">
         <v>0.26</v>
       </c>
-      <c r="AD3" s="5" t="n">
+      <c r="AD3" s="5">
         <v>0.27</v>
       </c>
-      <c r="AE3" s="5" t="n">
+      <c r="AE3" s="5">
         <v>0.24</v>
       </c>
-      <c r="AF3" s="5" t="n">
+      <c r="AF3" s="5">
         <v>0.26</v>
       </c>
-      <c r="AG3" s="5" t="n">
+      <c r="AG3" s="5">
         <v>0.18</v>
       </c>
-      <c r="AH3" s="5" t="n">
+      <c r="AH3" s="5">
         <v>0.31</v>
       </c>
       <c r="AI3" s="1"/>
@@ -863,8 +1082,7 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:38" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -890,7 +1108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:38" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>42</v>
@@ -914,31 +1132,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>2019</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>2020</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>2013</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>2007</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>2019</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="4">
         <v>2019</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="4">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -948,7 +1166,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -960,41 +1178,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
-    <hyperlink ref="C7" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
-    <hyperlink ref="E7" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
-    <hyperlink ref="F7" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
-    <hyperlink ref="G7" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
-    <hyperlink ref="H7" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="H7" r:id="rId6"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.49"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1023,122 +1233,122 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="E2" s="8" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="F2" s="8" t="n">
+      <c r="B2" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F2" s="8">
         <v>0.15</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="8">
         <v>0.114</v>
       </c>
-      <c r="H2" s="8" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="I2" s="8" t="n">
+      <c r="H2" s="8">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I2" s="8">
         <v>0.129</v>
       </c>
-      <c r="J2" s="9" t="n">
-        <f aca="false">SUM(B2:I2)</f>
+      <c r="J2" s="9">
+        <f>SUM(B2:I2)</f>
         <v>0.998</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="10" t="n">
-        <f aca="false">ROUND(1100*B2,0)</f>
+      <c r="B3" s="10">
+        <f t="shared" ref="B3:I3" si="0">ROUND(1100*B2,0)</f>
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="n">
-        <f aca="false">ROUND(1100*C2,0)</f>
+      <c r="C3" s="10">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D3" s="10" t="n">
-        <f aca="false">ROUND(1100*D2,0)</f>
+      <c r="D3" s="10">
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <f aca="false">ROUND(1100*E2,0)</f>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="F3" s="10" t="n">
-        <f aca="false">ROUND(1100*F2,0)</f>
+      <c r="F3" s="10">
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="G3" s="10" t="n">
-        <f aca="false">ROUND(1100*G2,0)</f>
+      <c r="G3" s="10">
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="H3" s="10" t="n">
-        <f aca="false">ROUND(1100*H2,0)</f>
+      <c r="H3" s="10">
+        <f t="shared" si="0"/>
         <v>358</v>
       </c>
-      <c r="I3" s="10" t="n">
-        <f aca="false">ROUND(1100*I2,0)</f>
+      <c r="I3" s="10">
+        <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="J3" s="11" t="n">
-        <f aca="false">SUM(B3:I3)</f>
+      <c r="J3" s="11">
+        <f>SUM(B3:I3)</f>
         <v>1099</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12" t="n">
-        <f aca="false">ROUND(1200*B2,0)</f>
+      <c r="B4" s="12">
+        <f t="shared" ref="B4:J4" si="1">ROUND(1200*B2,0)</f>
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="n">
-        <f aca="false">ROUND(1200*C2,0)</f>
+      <c r="C4" s="12">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="D4" s="10" t="n">
-        <f aca="false">ROUND(1200*D2,0)</f>
+      <c r="D4" s="10">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="E4" s="10" t="n">
-        <f aca="false">ROUND(1200*E2,0)</f>
+      <c r="E4" s="10">
+        <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="F4" s="12" t="n">
-        <f aca="false">ROUND(1200*F2,0)</f>
+      <c r="F4" s="12">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="G4" s="12" t="n">
-        <f aca="false">ROUND(1200*G2,0)</f>
+      <c r="G4" s="12">
+        <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="H4" s="10" t="n">
-        <f aca="false">ROUND(1200*H2,0)</f>
+      <c r="H4" s="10">
+        <f t="shared" si="1"/>
         <v>390</v>
       </c>
-      <c r="I4" s="12" t="n">
-        <f aca="false">ROUND(1200*I2,0)</f>
+      <c r="I4" s="12">
+        <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="J4" s="10" t="n">
-        <f aca="false">ROUND(1200*J2,0)</f>
+      <c r="J4" s="10">
+        <f t="shared" si="1"/>
         <v>1198</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1149,7 +1359,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>52</v>
       </c>
@@ -1181,97 +1391,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="16" t="n">
-        <f aca="false">1.0053*0.1892</f>
-        <v>0.19020276</v>
-      </c>
-      <c r="C7" s="16" t="n">
-        <f aca="false">1.0053*0.09188</f>
-        <v>0.092366964</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <f aca="false">1.0053*0.1278</f>
+      <c r="B7" s="16">
+        <f>1.0053*0.1892</f>
+        <v>0.19020276000000003</v>
+      </c>
+      <c r="C7" s="16">
+        <f>1.0053*0.09188</f>
+        <v>9.236696400000001E-2</v>
+      </c>
+      <c r="D7" s="16">
+        <f>1.0053*0.1278</f>
         <v>0.12847734</v>
       </c>
-      <c r="E7" s="16" t="n">
-        <f aca="false">1.0053*0.0925</f>
-        <v>0.09299025</v>
-      </c>
-      <c r="F7" s="16" t="n">
-        <f aca="false">1.0053*0.098014</f>
-        <v>0.0985334742</v>
-      </c>
-      <c r="G7" s="16" t="n">
-        <f aca="false">1.0053*0.1024</f>
-        <v>0.10294272</v>
-      </c>
-      <c r="H7" s="16" t="n">
-        <f aca="false">1.0053*0.0913</f>
-        <v>0.09178389</v>
-      </c>
-      <c r="I7" s="16" t="n">
-        <f aca="false">1.0053*0.1238</f>
-        <v>0.12445614</v>
-      </c>
-      <c r="J7" s="16" t="n">
-        <f aca="false">1.0053*0.0779</f>
-        <v>0.07831287</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <f aca="false">SUM(B7:J7)</f>
-        <v>1.0000664082</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="16">
+        <f>1.0053*0.0925</f>
+        <v>9.299025000000001E-2</v>
+      </c>
+      <c r="F7" s="16">
+        <f>1.0053*0.098014</f>
+        <v>9.8533474200000012E-2</v>
+      </c>
+      <c r="G7" s="16">
+        <f>1.0053*0.1024</f>
+        <v>0.10294272000000002</v>
+      </c>
+      <c r="H7" s="16">
+        <f>1.0053*0.0913</f>
+        <v>9.1783890000000007E-2</v>
+      </c>
+      <c r="I7" s="16">
+        <f>1.0053*0.1238</f>
+        <v>0.12445614000000001</v>
+      </c>
+      <c r="J7" s="16">
+        <f>1.0053*0.0779</f>
+        <v>7.8312870000000007E-2</v>
+      </c>
+      <c r="K7" s="9">
+        <f>SUM(B7:J7)</f>
+        <v>1.0000664082000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="10" t="n">
-        <f aca="false">ROUND(1100*B7,0)</f>
+      <c r="B8" s="10">
+        <f t="shared" ref="B8:J8" si="2">ROUND(1100*B7,0)</f>
         <v>209</v>
       </c>
-      <c r="C8" s="10" t="n">
-        <f aca="false">ROUND(1100*C7,0)</f>
+      <c r="C8" s="10">
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="D8" s="10" t="n">
-        <f aca="false">ROUND(1100*D7,0)</f>
+      <c r="D8" s="10">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="E8" s="10" t="n">
-        <f aca="false">ROUND(1100*E7,0)</f>
+      <c r="E8" s="10">
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="F8" s="10" t="n">
-        <f aca="false">ROUND(1100*F7,0)</f>
+      <c r="F8" s="10">
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="G8" s="10" t="n">
-        <f aca="false">ROUND(1100*G7,0)</f>
+      <c r="G8" s="10">
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="H8" s="10" t="n">
-        <f aca="false">ROUND(1100*H7,0)</f>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="I8" s="10" t="n">
-        <f aca="false">ROUND(1100*I7,0)</f>
+      <c r="I8" s="10">
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="J8" s="10" t="n">
-        <f aca="false">ROUND(1100*J7,0)</f>
+      <c r="J8" s="10">
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="K8" s="11" t="n">
-        <f aca="false">SUM(B8:J8)</f>
+      <c r="K8" s="11">
+        <f>SUM(B8:J8)</f>
         <v>1099</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1282,14 +1492,14 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="10">
         <v>-20</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -1306,66 +1516,66 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>0.2166</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>0.1408</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>0.3083</v>
-      </c>
-      <c r="F11" s="8" t="n">
+      <c r="B11" s="8">
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.30830000000000002</v>
+      </c>
+      <c r="F11" s="8">
         <v>0.1633</v>
       </c>
-      <c r="G11" s="9" t="n">
-        <f aca="false">SUM(B11:F11)</f>
+      <c r="G11" s="9">
+        <f>SUM(B11:F11)</f>
         <v>1</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="10" t="n">
-        <f aca="false">ROUND(1100*B11,0)</f>
+      <c r="B12" s="10">
+        <f>ROUND(1100*B11,0)</f>
         <v>238</v>
       </c>
-      <c r="C12" s="10" t="n">
-        <f aca="false">ROUND(1100*C11,0)</f>
+      <c r="C12" s="10">
+        <f>ROUND(1100*C11,0)</f>
         <v>188</v>
       </c>
-      <c r="D12" s="10" t="n">
-        <f aca="false">ROUND(1100*D11,0)</f>
+      <c r="D12" s="10">
+        <f>ROUND(1100*D11,0)</f>
         <v>155</v>
       </c>
-      <c r="E12" s="10" t="n">
-        <f aca="false">ROUND(1100*E11,0)</f>
+      <c r="E12" s="10">
+        <f>ROUND(1100*E11,0)</f>
         <v>339</v>
       </c>
-      <c r="F12" s="10" t="n">
-        <f aca="false">ROUND(1100*F11,0)</f>
+      <c r="F12" s="10">
+        <f>ROUND(1100*F11,0)</f>
         <v>180</v>
       </c>
-      <c r="G12" s="11" t="n">
-        <f aca="false">SUM(B12:F12)</f>
+      <c r="G12" s="11">
+        <f>SUM(B12:F12)</f>
         <v>1100</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1376,7 +1586,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>54</v>
       </c>
@@ -1394,18 +1604,18 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="D15" s="9" t="n">
-        <f aca="false">SUM(B15:C15)</f>
+      <c r="B15" s="8">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D15" s="9">
+        <f>SUM(B15:C15)</f>
         <v>1</v>
       </c>
       <c r="E15" s="9"/>
@@ -1415,20 +1625,20 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="10" t="n">
-        <f aca="false">ROUND(1100*B15,0)</f>
+      <c r="B16" s="10">
+        <f>ROUND(1100*B15,0)</f>
         <v>568</v>
       </c>
-      <c r="C16" s="10" t="n">
-        <f aca="false">ROUND(1100*C15,0)</f>
+      <c r="C16" s="10">
+        <f>ROUND(1100*C15,0)</f>
         <v>532</v>
       </c>
-      <c r="D16" s="11" t="n">
-        <f aca="false">SUM(B16:C16)</f>
+      <c r="D16" s="11">
+        <f>SUM(B16:C16)</f>
         <v>1100</v>
       </c>
       <c r="E16" s="9"/>
@@ -1438,20 +1648,20 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="10" t="n">
-        <f aca="false">ROUND(1200*B15,0)</f>
+      <c r="B17" s="10">
+        <f>ROUND(1200*B15,0)</f>
         <v>619</v>
       </c>
-      <c r="C17" s="12" t="n">
-        <f aca="false">ROUND(1200*C15,0)</f>
+      <c r="C17" s="12">
+        <f>ROUND(1200*C15,0)</f>
         <v>581</v>
       </c>
-      <c r="D17" s="10" t="n">
-        <f aca="false">ROUND(1200*D15,0)</f>
+      <c r="D17" s="10">
+        <f>ROUND(1200*D15,0)</f>
         <v>1200</v>
       </c>
       <c r="E17" s="9"/>
@@ -1461,7 +1671,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1472,7 +1682,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>40</v>
       </c>
@@ -1496,98 +1706,98 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="8" t="n">
+      <c r="B20" s="8">
         <v>0.12</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="8">
         <v>0.15</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="8">
         <v>0.24</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="8">
         <v>0.24</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="8">
         <v>0.25</v>
       </c>
-      <c r="G20" s="9" t="n">
-        <f aca="false">SUM(B20:F20)</f>
+      <c r="G20" s="9">
+        <f>SUM(B20:F20)</f>
         <v>1</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="10" t="n">
-        <f aca="false">ROUND(1100*B20,0)</f>
+      <c r="B21" s="10">
+        <f>ROUND(1100*B20,0)</f>
         <v>132</v>
       </c>
-      <c r="C21" s="10" t="n">
-        <f aca="false">ROUND(1100*C20,0)</f>
+      <c r="C21" s="10">
+        <f>ROUND(1100*C20,0)</f>
         <v>165</v>
       </c>
-      <c r="D21" s="10" t="n">
-        <f aca="false">ROUND(1100*D20,0)</f>
+      <c r="D21" s="10">
+        <f>ROUND(1100*D20,0)</f>
         <v>264</v>
       </c>
-      <c r="E21" s="10" t="n">
-        <f aca="false">ROUND(1100*E20,0)</f>
+      <c r="E21" s="10">
+        <f>ROUND(1100*E20,0)</f>
         <v>264</v>
       </c>
-      <c r="F21" s="10" t="n">
-        <f aca="false">ROUND(1100*F20,0)</f>
+      <c r="F21" s="10">
+        <f>ROUND(1100*F20,0)</f>
         <v>275</v>
       </c>
-      <c r="G21" s="11" t="n">
-        <f aca="false">SUM(B21:F21)</f>
+      <c r="G21" s="11">
+        <f>SUM(B21:F21)</f>
         <v>1100</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="10" t="n">
-        <f aca="false">ROUND(1200*B20,0)</f>
+      <c r="B22" s="10">
+        <f t="shared" ref="B22:G22" si="3">ROUND(1200*B20,0)</f>
         <v>144</v>
       </c>
-      <c r="C22" s="10" t="n">
-        <f aca="false">ROUND(1200*C20,0)</f>
+      <c r="C22" s="10">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="D22" s="10" t="n">
-        <f aca="false">ROUND(1200*D20,0)</f>
+      <c r="D22" s="10">
+        <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="E22" s="10" t="n">
-        <f aca="false">ROUND(1200*E20,0)</f>
+      <c r="E22" s="10">
+        <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="F22" s="12" t="n">
-        <f aca="false">ROUND(1200*F20,0)</f>
+      <c r="F22" s="12">
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="G22" s="10" t="n">
-        <f aca="false">ROUND(1200*G20,0)</f>
+      <c r="G22" s="10">
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1598,7 +1808,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>55</v>
       </c>
@@ -1622,24 +1832,24 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="8" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="C25" s="8" t="n">
+      <c r="B25" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C25" s="8">
         <v>0.248</v>
       </c>
-      <c r="D25" s="8" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="E25" s="8" t="n">
-        <v>0.293</v>
-      </c>
-      <c r="F25" s="9" t="n">
-        <f aca="false">SUM(B25:E25)</f>
+      <c r="D25" s="8">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F25" s="9">
+        <f>SUM(B25:E25)</f>
         <v>1</v>
       </c>
       <c r="G25" s="9"/>
@@ -1647,24 +1857,24 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="8" t="n">
-        <v>0.301</v>
-      </c>
-      <c r="C26" s="8" t="n">
+      <c r="B26" s="8">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C26" s="8">
         <v>0.246</v>
       </c>
-      <c r="D26" s="8" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="E26" s="8" t="n">
-        <v>0.285</v>
-      </c>
-      <c r="F26" s="9" t="n">
-        <f aca="false">SUM(B26:E26)</f>
+      <c r="D26" s="8">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F26" s="9">
+        <f>SUM(B26:E26)</f>
         <v>1</v>
       </c>
       <c r="G26" s="9"/>
@@ -1672,57 +1882,57 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="10" t="n">
-        <f aca="false">ROUND(1100*B26,0)</f>
-        <v>331</v>
-      </c>
-      <c r="C27" s="10" t="n">
-        <f aca="false">ROUND(1100*C26,0)</f>
-        <v>271</v>
-      </c>
-      <c r="D27" s="10" t="n">
-        <f aca="false">ROUND(1100*D26,0)</f>
-        <v>185</v>
-      </c>
-      <c r="E27" s="10" t="n">
-        <f aca="false">ROUND(1100*E26,0)</f>
-        <v>314</v>
-      </c>
-      <c r="F27" s="11" t="n">
-        <f aca="false">SUM(B27:E27)</f>
-        <v>1101</v>
+      <c r="B27" s="10">
+        <f>ROUND(1100*B29,0)</f>
+        <v>318</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" ref="C27:F27" si="4">ROUND(1100*C29,0)</f>
+        <v>257</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="4"/>
+        <v>202</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="4"/>
+        <v>322</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="4"/>
+        <v>1100</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="10" t="n">
-        <f aca="false">ROUND(1200*B26,0)</f>
-        <v>361</v>
-      </c>
-      <c r="C28" s="12" t="n">
-        <f aca="false">ROUND(1200*C26,0)</f>
-        <v>295</v>
-      </c>
-      <c r="D28" s="10" t="n">
-        <f aca="false">ROUND(1200*D26,0)</f>
-        <v>202</v>
-      </c>
-      <c r="E28" s="10" t="n">
-        <f aca="false">ROUND(1200*E26,0)</f>
-        <v>342</v>
-      </c>
-      <c r="F28" s="10" t="n">
-        <f aca="false">ROUND(1200*F26,0)</f>
+      <c r="B28" s="10">
+        <f>ROUND(1200*B29,0)</f>
+        <v>347</v>
+      </c>
+      <c r="C28" s="18">
+        <f t="shared" ref="C28:F28" si="5">ROUND(1200*C29,0)</f>
+        <v>281</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="5"/>
+        <v>221</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="G28" s="9"/>
@@ -1730,28 +1940,28 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="8" t="n">
-        <f aca="false">B26*(1-$H$35)+I38*$H$35</f>
-        <v>0.289270228235294</v>
-      </c>
-      <c r="C29" s="8" t="n">
-        <f aca="false">C26*(1-$H$35)+G38*$H$35</f>
-        <v>0.234008851764706</v>
-      </c>
-      <c r="D29" s="8" t="n">
-        <f aca="false">D26*(1-$H$35)+E38*$H$35</f>
-        <v>0.18385952</v>
-      </c>
-      <c r="E29" s="8" t="n">
-        <f aca="false">E26*(1-$H$35)+C38*$H$35</f>
-        <v>0.2928614</v>
-      </c>
-      <c r="F29" s="8" t="n">
-        <f aca="false">SUM(B29:E29)</f>
+      <c r="B29" s="8">
+        <f>B26*(1-$H$35)+I38*$H$35</f>
+        <v>0.28927022823529408</v>
+      </c>
+      <c r="C29" s="8">
+        <f>C26*(1-$H$35)+G38*$H$35</f>
+        <v>0.2340088517647059</v>
+      </c>
+      <c r="D29" s="8">
+        <f>D26*(1-$H$35)+E38*$H$35</f>
+        <v>0.18385952000000003</v>
+      </c>
+      <c r="E29" s="8">
+        <f>E26*(1-$H$35)+C38*$H$35</f>
+        <v>0.29286139999999994</v>
+      </c>
+      <c r="F29" s="8">
+        <f>SUM(B29:E29)</f>
         <v>1</v>
       </c>
       <c r="G29" s="9"/>
@@ -1759,8 +1969,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1786,7 +1995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="6" t="s">
         <v>42</v>
@@ -1810,31 +2019,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="4">
         <v>2019</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="4">
         <v>2020</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="4">
         <v>2013</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="4">
         <v>2007</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="4">
         <v>2019</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="4">
         <v>2019</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="4">
         <v>2016</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1844,178 +2053,158 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35" s="1">
         <v>5725530</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <v>0.10848</v>
+      <c r="D35" s="1">
+        <v>0.10847999999999999</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="1">
         <v>3446184</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="1" t="n">
-        <v>0.06836</v>
-      </c>
-      <c r="I35" s="0" t="s">
+      <c r="H35" s="1">
+        <v>6.8360000000000004E-2</v>
+      </c>
+      <c r="I35" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35">
         <v>50408986</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>1700000</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>1700000</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36">
         <v>1500000</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36">
         <v>550000</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>1700000</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>1700000</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37">
         <v>300000</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37">
         <v>550000</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="0" t="n">
-        <f aca="false">C37/(C37+E37+G37+I37)</f>
+      <c r="C38">
+        <f>C37/(C37+E37+G37+I37)</f>
         <v>0.4</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <f aca="false">E37/(C37+E37+G37+I37)</f>
+      <c r="E38">
+        <f>E37/(C37+E37+G37+I37)</f>
         <v>0.4</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="0" t="n">
-        <f aca="false">G37/(C37+E37+G37+I37)</f>
-        <v>0.0705882352941176</v>
-      </c>
-      <c r="H38" s="0" t="s">
+      <c r="G38">
+        <f>G37/(C37+E37+G37+I37)</f>
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="H38" t="s">
         <v>68</v>
       </c>
-      <c r="I38" s="0" t="n">
-        <f aca="false">I37/(C37+E37+G37+I37)</f>
-        <v>0.129411764705882</v>
-      </c>
-    </row>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="I38">
+        <f>I37/(C37+E37+G37+I37)</f>
+        <v>0.12941176470588237</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
-    <hyperlink ref="C32" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
-    <hyperlink ref="E32" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
-    <hyperlink ref="F32" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
-    <hyperlink ref="G32" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
-    <hyperlink ref="H32" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
+    <hyperlink ref="B32" r:id="rId1"/>
+    <hyperlink ref="C32" r:id="rId2"/>
+    <hyperlink ref="E32" r:id="rId3"/>
+    <hyperlink ref="F32" r:id="rId4"/>
+    <hyperlink ref="G32" r:id="rId5"/>
+    <hyperlink ref="H32" r:id="rId6"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.49"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -2044,85 +2233,85 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="E2" s="8" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="F2" s="8" t="n">
+      <c r="B2" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F2" s="8">
         <v>0.15</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="8">
         <v>0.114</v>
       </c>
-      <c r="H2" s="8" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="I2" s="8" t="n">
+      <c r="H2" s="8">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="I2" s="8">
         <v>0.129</v>
       </c>
-      <c r="J2" s="9" t="n">
-        <f aca="false">SUM(B2:I2)</f>
+      <c r="J2" s="9">
+        <f>SUM(B2:I2)</f>
         <v>0.998</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <f aca="false">1.1*B2</f>
-        <v>0.0088</v>
-      </c>
-      <c r="C3" s="8" t="n">
-        <f aca="false">1.1*C2</f>
-        <v>0.0385</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <f aca="false">1.1*D2</f>
-        <v>0.1111</v>
-      </c>
-      <c r="E3" s="8" t="n">
-        <f aca="false">1.1*E2</f>
-        <v>0.1496</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <f aca="false">1.1*F2</f>
-        <v>0.165</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <f aca="false">1.1*G2</f>
-        <v>0.1254</v>
-      </c>
-      <c r="H3" s="8" t="n">
-        <f aca="false">1.1*H2</f>
-        <v>0.3575</v>
-      </c>
-      <c r="I3" s="8" t="n">
-        <f aca="false">1.1*I2</f>
-        <v>0.1419</v>
-      </c>
-      <c r="J3" s="9" t="n">
-        <f aca="false">SUM(B3:I3)</f>
-        <v>1.0978</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="8">
+        <f t="shared" ref="B3:I3" si="0">1.1*B2</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" si="0"/>
+        <v>3.8500000000000006E-2</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11110000000000002</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" si="0"/>
+        <v>0.35750000000000004</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14190000000000003</v>
+      </c>
+      <c r="J3" s="9">
+        <f>SUM(B3:I3)</f>
+        <v>1.0978000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="10">
         <v>22</v>
       </c>
       <c r="C4" s="10"/>
@@ -2132,94 +2321,94 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="11" t="n">
-        <f aca="false">SUM(B4:I4)</f>
+      <c r="J4" s="11">
+        <f>SUM(B4:I4)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="10" t="n">
-        <f aca="false">1000*B2+B4</f>
+      <c r="B5" s="10">
+        <f t="shared" ref="B5:I5" si="1">1000*B2+B4</f>
         <v>30</v>
       </c>
-      <c r="C5" s="10" t="n">
-        <f aca="false">1000*C2+C4</f>
+      <c r="C5" s="10">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D5" s="10" t="n">
-        <f aca="false">1000*D2+D4</f>
+      <c r="D5" s="10">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="E5" s="10" t="n">
-        <f aca="false">1000*E2+E4</f>
+      <c r="E5" s="10">
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="F5" s="10" t="n">
-        <f aca="false">1000*F2+F4</f>
+      <c r="F5" s="10">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="G5" s="10" t="n">
-        <f aca="false">1000*G2+G4</f>
+      <c r="G5" s="10">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="H5" s="10" t="n">
-        <f aca="false">1000*H2+H4</f>
+      <c r="H5" s="10">
+        <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="I5" s="10" t="n">
-        <f aca="false">1000*I2+I4</f>
+      <c r="I5" s="10">
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="J5" s="11" t="n">
-        <f aca="false">SUM(B5:I5)</f>
+      <c r="J5" s="11">
+        <f>SUM(B5:I5)</f>
         <v>1020</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="10" t="n">
-        <f aca="false">ROUND(1100*B2+B4,0)</f>
+      <c r="B6" s="10">
+        <f t="shared" ref="B6:I6" si="2">ROUND(1100*B2+B4,0)</f>
         <v>31</v>
       </c>
-      <c r="C6" s="10" t="n">
-        <f aca="false">ROUND(1100*C2+C4,0)</f>
+      <c r="C6" s="10">
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="D6" s="10" t="n">
-        <f aca="false">ROUND(1100*D2+D4,0)</f>
+      <c r="D6" s="10">
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="E6" s="10" t="n">
-        <f aca="false">ROUND(1100*E2+E4,0)</f>
+      <c r="E6" s="10">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="F6" s="10" t="n">
-        <f aca="false">ROUND(1100*F2+F4,0)</f>
+      <c r="F6" s="10">
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="G6" s="10" t="n">
-        <f aca="false">ROUND(1100*G2+G4,0)</f>
+      <c r="G6" s="10">
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="H6" s="10" t="n">
-        <f aca="false">ROUND(1100*H2+H4,0)</f>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
         <v>358</v>
       </c>
-      <c r="I6" s="10" t="n">
-        <f aca="false">ROUND(1100*I2+I4,0)</f>
+      <c r="I6" s="10">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="J6" s="11" t="n">
-        <f aca="false">SUM(B6:I6)</f>
+      <c r="J6" s="11">
+        <f>SUM(B6:I6)</f>
         <v>1121</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2230,7 +2419,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>52</v>
       </c>
@@ -2262,97 +2451,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="16" t="n">
-        <f aca="false">1.0053*0.1892</f>
-        <v>0.19020276</v>
-      </c>
-      <c r="C9" s="16" t="n">
-        <f aca="false">1.0053*0.09188</f>
-        <v>0.092366964</v>
-      </c>
-      <c r="D9" s="16" t="n">
-        <f aca="false">1.0053*0.1278</f>
+      <c r="B9" s="16">
+        <f>1.0053*0.1892</f>
+        <v>0.19020276000000003</v>
+      </c>
+      <c r="C9" s="16">
+        <f>1.0053*0.09188</f>
+        <v>9.236696400000001E-2</v>
+      </c>
+      <c r="D9" s="16">
+        <f>1.0053*0.1278</f>
         <v>0.12847734</v>
       </c>
-      <c r="E9" s="16" t="n">
-        <f aca="false">1.0053*0.0925</f>
-        <v>0.09299025</v>
-      </c>
-      <c r="F9" s="16" t="n">
-        <f aca="false">1.0053*0.098014</f>
-        <v>0.0985334742</v>
-      </c>
-      <c r="G9" s="16" t="n">
-        <f aca="false">1.0053*0.1024</f>
-        <v>0.10294272</v>
-      </c>
-      <c r="H9" s="16" t="n">
-        <f aca="false">1.0053*0.0913</f>
-        <v>0.09178389</v>
-      </c>
-      <c r="I9" s="16" t="n">
-        <f aca="false">1.0053*0.1238</f>
-        <v>0.12445614</v>
-      </c>
-      <c r="J9" s="16" t="n">
-        <f aca="false">1.0053*0.0779</f>
-        <v>0.07831287</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <f aca="false">SUM(B9:J9)</f>
-        <v>1.0000664082</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="16">
+        <f>1.0053*0.0925</f>
+        <v>9.299025000000001E-2</v>
+      </c>
+      <c r="F9" s="16">
+        <f>1.0053*0.098014</f>
+        <v>9.8533474200000012E-2</v>
+      </c>
+      <c r="G9" s="16">
+        <f>1.0053*0.1024</f>
+        <v>0.10294272000000002</v>
+      </c>
+      <c r="H9" s="16">
+        <f>1.0053*0.0913</f>
+        <v>9.1783890000000007E-2</v>
+      </c>
+      <c r="I9" s="16">
+        <f>1.0053*0.1238</f>
+        <v>0.12445614000000001</v>
+      </c>
+      <c r="J9" s="16">
+        <f>1.0053*0.0779</f>
+        <v>7.8312870000000007E-2</v>
+      </c>
+      <c r="K9" s="9">
+        <f>SUM(B9:J9)</f>
+        <v>1.0000664082000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <f aca="false">1.1*B9</f>
-        <v>0.209223036</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <f aca="false">1.1*C9</f>
-        <v>0.1016036604</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <f aca="false">1.1*D9</f>
-        <v>0.141325074</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <f aca="false">1.1*E9</f>
-        <v>0.102289275</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <f aca="false">1.1*F9</f>
-        <v>0.10838682162</v>
-      </c>
-      <c r="G10" s="8" t="n">
-        <f aca="false">1.1*G9</f>
-        <v>0.113236992</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <f aca="false">1.1*H9</f>
-        <v>0.100962279</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <f aca="false">1.1*I9</f>
-        <v>0.136901754</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <f aca="false">1.1*J9</f>
-        <v>0.086144157</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <f aca="false">SUM(B10:J10)</f>
-        <v>1.10007304902</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:J10" si="3">1.1*B9</f>
+        <v>0.20922303600000006</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10160366040000002</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.14132507399999999</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10228927500000001</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10838682162000002</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11323699200000002</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.10096227900000002</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="3"/>
+        <v>0.13690175400000001</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="3"/>
+        <v>8.6144157000000013E-2</v>
+      </c>
+      <c r="K10" s="9">
+        <f>SUM(B10:J10)</f>
+        <v>1.1000730490200001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
@@ -2362,107 +2551,107 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="10">
         <v>1</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="11" t="n">
-        <f aca="false">SUM(B11:J11)</f>
+      <c r="K11" s="11">
+        <f>SUM(B11:J11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="10" t="n">
-        <f aca="false">ROUND(1000*B9,0)</f>
+      <c r="B12" s="10">
+        <f t="shared" ref="B12:J12" si="4">ROUND(1000*B9,0)</f>
         <v>190</v>
       </c>
-      <c r="C12" s="10" t="n">
-        <f aca="false">ROUND(1000*C9,0)</f>
+      <c r="C12" s="10">
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="D12" s="10" t="n">
-        <f aca="false">ROUND(1000*D9,0)</f>
+      <c r="D12" s="10">
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
-      <c r="E12" s="10" t="n">
-        <f aca="false">ROUND(1000*E9,0)</f>
+      <c r="E12" s="10">
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="F12" s="10" t="n">
-        <f aca="false">ROUND(1000*F9,0)</f>
+      <c r="F12" s="10">
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="G12" s="10" t="n">
-        <f aca="false">ROUND(1000*G9,0)</f>
+      <c r="G12" s="10">
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
-      <c r="H12" s="10" t="n">
-        <f aca="false">ROUND(1000*H9,0)</f>
+      <c r="H12" s="10">
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="I12" s="10" t="n">
-        <f aca="false">ROUND(1000*I9,0)</f>
+      <c r="I12" s="10">
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
-      <c r="J12" s="10" t="n">
-        <f aca="false">ROUND(1000*J9,0)</f>
+      <c r="J12" s="10">
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="K12" s="11" t="n">
-        <f aca="false">SUM(B12:J12)</f>
+      <c r="K12" s="11">
+        <f>SUM(B12:J12)</f>
         <v>999</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="10" t="n">
-        <f aca="false">ROUND(1100*B9,0)+B11</f>
+      <c r="B13" s="10">
+        <f t="shared" ref="B13:J13" si="5">ROUND(1100*B9,0)+B11</f>
         <v>209</v>
       </c>
-      <c r="C13" s="10" t="n">
-        <f aca="false">ROUND(1100*C9,0)+C11</f>
+      <c r="C13" s="10">
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="D13" s="10" t="n">
-        <f aca="false">ROUND(1100*D9,0)+D11</f>
+      <c r="D13" s="10">
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
-      <c r="E13" s="10" t="n">
-        <f aca="false">ROUND(1100*E9,0)+E11</f>
+      <c r="E13" s="10">
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="F13" s="10" t="n">
-        <f aca="false">ROUND(1100*F9,0)+F11</f>
+      <c r="F13" s="10">
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="G13" s="10" t="n">
-        <f aca="false">ROUND(1100*G9,0)+G11</f>
+      <c r="G13" s="10">
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
-      <c r="H13" s="10" t="n">
-        <f aca="false">ROUND(1100*H9,0)+H11</f>
+      <c r="H13" s="10">
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="I13" s="10" t="n">
-        <f aca="false">ROUND(1100*I9,0)+I11</f>
+      <c r="I13" s="10">
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
-      <c r="J13" s="10" t="n">
-        <f aca="false">ROUND(1100*J9,0)+J11</f>
+      <c r="J13" s="10">
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
-      <c r="K13" s="11" t="n">
-        <f aca="false">SUM(B13:J13)</f>
+      <c r="K13" s="11">
+        <f>SUM(B13:J13)</f>
         <v>1100</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2473,14 +2662,14 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="8">
         <v>-20</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -2497,153 +2686,153 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>0.2166</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>0.1408</v>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>0.3083</v>
-      </c>
-      <c r="F16" s="8" t="n">
+      <c r="B16" s="8">
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.30830000000000002</v>
+      </c>
+      <c r="F16" s="8">
         <v>0.1633</v>
       </c>
-      <c r="G16" s="9" t="n">
-        <f aca="false">SUM(B16:F16)</f>
+      <c r="G16" s="9">
+        <f>SUM(B16:F16)</f>
         <v>1</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <f aca="false">1.1*B16</f>
+      <c r="B17" s="8">
+        <f>1.1*B16</f>
         <v>0.23826</v>
       </c>
-      <c r="C17" s="8" t="n">
-        <f aca="false">1.1*C16</f>
-        <v>0.1881</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <f aca="false">1.1*D16</f>
-        <v>0.15488</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <f aca="false">1.1*E16</f>
-        <v>0.33913</v>
-      </c>
-      <c r="F17" s="8" t="n">
-        <f aca="false">1.1*F16</f>
-        <v>0.17963</v>
-      </c>
-      <c r="G17" s="9" t="n">
-        <f aca="false">SUM(B17:F17)</f>
-        <v>1.1</v>
+      <c r="C17" s="8">
+        <f>1.1*C16</f>
+        <v>0.18810000000000002</v>
+      </c>
+      <c r="D17" s="8">
+        <f>1.1*D16</f>
+        <v>0.15488000000000002</v>
+      </c>
+      <c r="E17" s="8">
+        <f>1.1*E16</f>
+        <v>0.33913000000000004</v>
+      </c>
+      <c r="F17" s="8">
+        <f>1.1*F16</f>
+        <v>0.17963000000000001</v>
+      </c>
+      <c r="G17" s="9">
+        <f>SUM(B17:F17)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="10">
         <v>17</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="10">
         <v>1</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="10">
         <v>4</v>
       </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="11" t="n">
-        <f aca="false">SUM(B18:F18)</f>
+      <c r="G18" s="11">
+        <f>SUM(B18:F18)</f>
         <v>22</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="10" t="n">
-        <f aca="false">ROUND(1000*B16,0)+B18</f>
+      <c r="B19" s="10">
+        <f>ROUND(1000*B16,0)+B18</f>
         <v>234</v>
       </c>
-      <c r="C19" s="10" t="n">
-        <f aca="false">ROUND(1000*C16,0)+C18</f>
+      <c r="C19" s="10">
+        <f>ROUND(1000*C16,0)+C18</f>
         <v>171</v>
       </c>
-      <c r="D19" s="10" t="n">
-        <f aca="false">ROUND(1000*D16,0)+D18</f>
+      <c r="D19" s="10">
+        <f>ROUND(1000*D16,0)+D18</f>
         <v>142</v>
       </c>
-      <c r="E19" s="10" t="n">
-        <f aca="false">ROUND(1000*E16,0)+E18</f>
+      <c r="E19" s="10">
+        <f>ROUND(1000*E16,0)+E18</f>
         <v>312</v>
       </c>
-      <c r="F19" s="10" t="n">
-        <f aca="false">ROUND(1000*F16,0)+F18</f>
+      <c r="F19" s="10">
+        <f>ROUND(1000*F16,0)+F18</f>
         <v>163</v>
       </c>
-      <c r="G19" s="11" t="n">
-        <f aca="false">SUM(B19:F19)</f>
+      <c r="G19" s="11">
+        <f>SUM(B19:F19)</f>
         <v>1022</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="10" t="n">
-        <f aca="false">ROUND(1100*B16,0)+B18</f>
+      <c r="B20" s="10">
+        <f>ROUND(1100*B16,0)+B18</f>
         <v>255</v>
       </c>
-      <c r="C20" s="10" t="n">
-        <f aca="false">ROUND(1100*C16,0)+C18</f>
+      <c r="C20" s="10">
+        <f>ROUND(1100*C16,0)+C18</f>
         <v>188</v>
       </c>
-      <c r="D20" s="10" t="n">
-        <f aca="false">ROUND(1100*D16,0)+D18</f>
+      <c r="D20" s="10">
+        <f>ROUND(1100*D16,0)+D18</f>
         <v>156</v>
       </c>
-      <c r="E20" s="10" t="n">
-        <f aca="false">ROUND(1100*E16,0)+E18</f>
+      <c r="E20" s="10">
+        <f>ROUND(1100*E16,0)+E18</f>
         <v>343</v>
       </c>
-      <c r="F20" s="10" t="n">
-        <f aca="false">ROUND(1100*F16,0)+F18</f>
+      <c r="F20" s="10">
+        <f>ROUND(1100*F16,0)+F18</f>
         <v>180</v>
       </c>
-      <c r="G20" s="11" t="n">
-        <f aca="false">SUM(B20:F20)</f>
+      <c r="G20" s="11">
+        <f>SUM(B20:F20)</f>
         <v>1122</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2654,7 +2843,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>54</v>
       </c>
@@ -2672,18 +2861,18 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="8" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="C23" s="8" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="D23" s="9" t="n">
-        <f aca="false">SUM(B23:C23)</f>
+      <c r="B23" s="8">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D23" s="9">
+        <f>SUM(B23:C23)</f>
         <v>1</v>
       </c>
       <c r="E23" s="9"/>
@@ -2693,21 +2882,21 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="8" t="n">
-        <f aca="false">1.1*B23</f>
-        <v>0.5676</v>
-      </c>
-      <c r="C24" s="8" t="n">
-        <f aca="false">1.1*C23</f>
-        <v>0.5324</v>
-      </c>
-      <c r="D24" s="9" t="n">
-        <f aca="false">SUM(B24:C24)</f>
-        <v>1.1</v>
+      <c r="B24" s="8">
+        <f>1.1*B23</f>
+        <v>0.5676000000000001</v>
+      </c>
+      <c r="C24" s="8">
+        <f>1.1*C23</f>
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="D24" s="9">
+        <f>SUM(B24:C24)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -2716,18 +2905,18 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="10">
         <v>16</v>
       </c>
-      <c r="C25" s="10" t="n">
+      <c r="C25" s="10">
         <v>6</v>
       </c>
-      <c r="D25" s="11" t="n">
-        <f aca="false">SUM(B25:C25)</f>
+      <c r="D25" s="11">
+        <f>SUM(B25:C25)</f>
         <v>22</v>
       </c>
       <c r="E25" s="9"/>
@@ -2737,20 +2926,20 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="10" t="n">
-        <f aca="false">ROUND(1000*B23,0)+B25</f>
+      <c r="B26" s="10">
+        <f>ROUND(1000*B23,0)+B25</f>
         <v>532</v>
       </c>
-      <c r="C26" s="10" t="n">
-        <f aca="false">ROUND(1000*C23,0)+C25</f>
+      <c r="C26" s="10">
+        <f>ROUND(1000*C23,0)+C25</f>
         <v>490</v>
       </c>
-      <c r="D26" s="11" t="n">
-        <f aca="false">SUM(B26:C26)</f>
+      <c r="D26" s="11">
+        <f>SUM(B26:C26)</f>
         <v>1022</v>
       </c>
       <c r="E26" s="9"/>
@@ -2760,20 +2949,20 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="10" t="n">
-        <f aca="false">ROUND(1100*B23,0)+B25</f>
+      <c r="B27" s="10">
+        <f>ROUND(1100*B23,0)+B25</f>
         <v>584</v>
       </c>
-      <c r="C27" s="10" t="n">
-        <f aca="false">ROUND(1100*C23,0)+C25</f>
+      <c r="C27" s="10">
+        <f>ROUND(1100*C23,0)+C25</f>
         <v>538</v>
       </c>
-      <c r="D27" s="11" t="n">
-        <f aca="false">SUM(B27:C27)</f>
+      <c r="D27" s="11">
+        <f>SUM(B27:C27)</f>
         <v>1122</v>
       </c>
       <c r="E27" s="9"/>
@@ -2783,7 +2972,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2794,7 +2983,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>40</v>
       </c>
@@ -2818,157 +3007,157 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="8">
         <v>0.12</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="8">
         <v>0.15</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="8">
         <v>0.24</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30" s="8">
         <v>0.24</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="8">
         <v>0.25</v>
       </c>
-      <c r="G30" s="9" t="n">
-        <f aca="false">SUM(B30:F30)</f>
+      <c r="G30" s="9">
+        <f>SUM(B30:F30)</f>
         <v>1</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="8" t="n">
-        <f aca="false">1.1*B30</f>
-        <v>0.132</v>
-      </c>
-      <c r="C31" s="8" t="n">
-        <f aca="false">1.1*C30</f>
-        <v>0.165</v>
-      </c>
-      <c r="D31" s="8" t="n">
-        <f aca="false">1.1*D30</f>
-        <v>0.264</v>
-      </c>
-      <c r="E31" s="8" t="n">
-        <f aca="false">1.1*E30</f>
-        <v>0.264</v>
-      </c>
-      <c r="F31" s="8" t="n">
-        <f aca="false">1.1*F30</f>
-        <v>0.275</v>
-      </c>
-      <c r="G31" s="9" t="n">
-        <f aca="false">SUM(B31:F31)</f>
-        <v>1.1</v>
+      <c r="B31" s="8">
+        <f>1.1*B30</f>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C31" s="8">
+        <f>1.1*C30</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D31" s="8">
+        <f>1.1*D30</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E31" s="8">
+        <f>1.1*E30</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F31" s="8">
+        <f>1.1*F30</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G31" s="9">
+        <f>SUM(B31:F31)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="10" t="n">
+      <c r="B32" s="10">
         <v>4</v>
       </c>
-      <c r="C32" s="10" t="n">
+      <c r="C32" s="10">
         <v>4</v>
       </c>
-      <c r="D32" s="10" t="n">
+      <c r="D32" s="10">
         <v>9</v>
       </c>
-      <c r="E32" s="10" t="n">
+      <c r="E32" s="10">
         <v>3</v>
       </c>
-      <c r="F32" s="10" t="n">
+      <c r="F32" s="10">
         <v>2</v>
       </c>
-      <c r="G32" s="11" t="n">
-        <f aca="false">SUM(B32:F32)</f>
+      <c r="G32" s="11">
+        <f>SUM(B32:F32)</f>
         <v>22</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="10" t="n">
-        <f aca="false">ROUND(1000*B30,0)+B32</f>
+      <c r="B33" s="10">
+        <f>ROUND(1000*B30,0)+B32</f>
         <v>124</v>
       </c>
-      <c r="C33" s="10" t="n">
-        <f aca="false">ROUND(1000*C30,0)+C32</f>
+      <c r="C33" s="10">
+        <f>ROUND(1000*C30,0)+C32</f>
         <v>154</v>
       </c>
-      <c r="D33" s="10" t="n">
-        <f aca="false">ROUND(1000*D30,0)+D32</f>
+      <c r="D33" s="10">
+        <f>ROUND(1000*D30,0)+D32</f>
         <v>249</v>
       </c>
-      <c r="E33" s="10" t="n">
-        <f aca="false">ROUND(1000*E30,0)+E32</f>
+      <c r="E33" s="10">
+        <f>ROUND(1000*E30,0)+E32</f>
         <v>243</v>
       </c>
-      <c r="F33" s="10" t="n">
-        <f aca="false">ROUND(1000*F30,0)+F32</f>
+      <c r="F33" s="10">
+        <f>ROUND(1000*F30,0)+F32</f>
         <v>252</v>
       </c>
-      <c r="G33" s="11" t="n">
-        <f aca="false">SUM(B33:F33)</f>
+      <c r="G33" s="11">
+        <f>SUM(B33:F33)</f>
         <v>1022</v>
       </c>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="10" t="n">
-        <f aca="false">ROUND(1100*B30,0)+B32</f>
+      <c r="B34" s="10">
+        <f>ROUND(1100*B30,0)+B32</f>
         <v>136</v>
       </c>
-      <c r="C34" s="10" t="n">
-        <f aca="false">ROUND(1100*C30,0)+C32</f>
+      <c r="C34" s="10">
+        <f>ROUND(1100*C30,0)+C32</f>
         <v>169</v>
       </c>
-      <c r="D34" s="10" t="n">
-        <f aca="false">ROUND(1100*D30,0)+D32</f>
+      <c r="D34" s="10">
+        <f>ROUND(1100*D30,0)+D32</f>
         <v>273</v>
       </c>
-      <c r="E34" s="10" t="n">
-        <f aca="false">ROUND(1100*E30,0)+E32</f>
+      <c r="E34" s="10">
+        <f>ROUND(1100*E30,0)+E32</f>
         <v>267</v>
       </c>
-      <c r="F34" s="10" t="n">
-        <f aca="false">ROUND(1100*F30,0)+F32</f>
+      <c r="F34" s="10">
+        <f>ROUND(1100*F30,0)+F32</f>
         <v>277</v>
       </c>
-      <c r="G34" s="11" t="n">
-        <f aca="false">SUM(B34:F34)</f>
+      <c r="G34" s="11">
+        <f>SUM(B34:F34)</f>
         <v>1122</v>
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2979,7 +3168,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>55</v>
       </c>
@@ -3001,24 +3190,24 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="8" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="C37" s="8" t="n">
+      <c r="B37" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C37" s="8">
         <v>0.248</v>
       </c>
-      <c r="D37" s="8" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="E37" s="8" t="n">
-        <v>0.293</v>
-      </c>
-      <c r="F37" s="9" t="n">
-        <f aca="false">SUM(B37:E37)</f>
+      <c r="D37" s="8">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F37" s="9">
+        <f>SUM(B37:E37)</f>
         <v>1</v>
       </c>
       <c r="G37" s="9"/>
@@ -3026,53 +3215,53 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="8" t="n">
-        <f aca="false">B37*1.1</f>
-        <v>0.319</v>
-      </c>
-      <c r="C38" s="8" t="n">
-        <f aca="false">C37*1.1</f>
-        <v>0.2728</v>
-      </c>
-      <c r="D38" s="8" t="n">
-        <f aca="false">D37*1.1</f>
-        <v>0.1859</v>
-      </c>
-      <c r="E38" s="8" t="n">
-        <f aca="false">E37*1.1</f>
-        <v>0.3223</v>
-      </c>
-      <c r="F38" s="9" t="n">
-        <f aca="false">SUM(B38:E38)</f>
-        <v>1.1</v>
+      <c r="B38" s="8">
+        <f>B37*1.1</f>
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="C38" s="8">
+        <f>C37*1.1</f>
+        <v>0.27280000000000004</v>
+      </c>
+      <c r="D38" s="8">
+        <f>D37*1.1</f>
+        <v>0.18590000000000004</v>
+      </c>
+      <c r="E38" s="8">
+        <f>E37*1.1</f>
+        <v>0.32230000000000003</v>
+      </c>
+      <c r="F38" s="9">
+        <f>SUM(B38:E38)</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="10" t="n">
+      <c r="B39" s="10">
         <v>7</v>
       </c>
-      <c r="C39" s="10" t="n">
+      <c r="C39" s="10">
         <v>5</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="10">
         <v>6</v>
       </c>
-      <c r="E39" s="10" t="n">
+      <c r="E39" s="10">
         <v>4</v>
       </c>
-      <c r="F39" s="11" t="n">
-        <f aca="false">SUM(B39:E39)</f>
+      <c r="F39" s="11">
+        <f>SUM(B39:E39)</f>
         <v>22</v>
       </c>
       <c r="G39" s="9"/>
@@ -3080,28 +3269,28 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="10" t="n">
-        <f aca="false">ROUND(1000*B37,0)+B39</f>
+      <c r="B40" s="10">
+        <f>ROUND(1000*B37,0)+B39</f>
         <v>297</v>
       </c>
-      <c r="C40" s="10" t="n">
-        <f aca="false">ROUND(1000*C37,0)+C39</f>
+      <c r="C40" s="10">
+        <f>ROUND(1000*C37,0)+C39</f>
         <v>253</v>
       </c>
-      <c r="D40" s="10" t="n">
-        <f aca="false">ROUND(1000*D37,0)+D39</f>
+      <c r="D40" s="10">
+        <f>ROUND(1000*D37,0)+D39</f>
         <v>175</v>
       </c>
-      <c r="E40" s="10" t="n">
-        <f aca="false">ROUND(1000*E37,0)+E39</f>
+      <c r="E40" s="10">
+        <f>ROUND(1000*E37,0)+E39</f>
         <v>297</v>
       </c>
-      <c r="F40" s="11" t="n">
-        <f aca="false">SUM(B40:E40)</f>
+      <c r="F40" s="11">
+        <f>SUM(B40:E40)</f>
         <v>1022</v>
       </c>
       <c r="G40" s="9"/>
@@ -3109,33 +3298,32 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="11" t="n">
-        <f aca="false">ROUND(1100*B37,0)+B39</f>
+      <c r="B41" s="11">
+        <f>ROUND(1100*B37,0)+B39</f>
         <v>326</v>
       </c>
-      <c r="C41" s="11" t="n">
-        <f aca="false">ROUND(1100*C37,0)+C39</f>
+      <c r="C41" s="11">
+        <f>ROUND(1100*C37,0)+C39</f>
         <v>278</v>
       </c>
-      <c r="D41" s="11" t="n">
-        <f aca="false">ROUND(1100*D37,0)+D39</f>
+      <c r="D41" s="11">
+        <f>ROUND(1100*D37,0)+D39</f>
         <v>192</v>
       </c>
-      <c r="E41" s="11" t="n">
-        <f aca="false">ROUND(1100*E37,0)+E39</f>
+      <c r="E41" s="11">
+        <f>ROUND(1100*E37,0)+E39</f>
         <v>326</v>
       </c>
-      <c r="F41" s="11" t="n">
-        <f aca="false">SUM(B41:E41)</f>
+      <c r="F41" s="11">
+        <f>SUM(B41:E41)</f>
         <v>1122</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:10" ht="26" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -3161,7 +3349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="6" t="s">
         <v>42</v>
@@ -3185,31 +3373,31 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="4">
         <v>2019</v>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="4">
         <v>2020</v>
       </c>
-      <c r="D45" s="4" t="n">
+      <c r="D45" s="4">
         <v>2013</v>
       </c>
-      <c r="E45" s="4" t="n">
+      <c r="E45" s="4">
         <v>2007</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="F45" s="4">
         <v>2019</v>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="G45" s="4">
         <v>2019</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="4">
         <v>2016</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3219,7 +3407,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3231,19 +3419,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B44" r:id="rId1" display="https://www.insee.fr/fr/statistiques/2381478"/>
-    <hyperlink ref="C44" r:id="rId2" display="https://www.insee.fr/fr/statistiques/4277596?sommaire=4318291&amp;q=population+par+r%C3%A9gion"/>
-    <hyperlink ref="E44" r:id="rId3" display="https://www.insee.fr/fr/statistiques/1280970"/>
-    <hyperlink ref="F44" r:id="rId4" display="https://www.insee.fr/fr/statistiques/1892088?sommaire=1912926"/>
-    <hyperlink ref="G44" r:id="rId5" display="https://www.insee.fr/fr/statistiques/2381474"/>
-    <hyperlink ref="H44" r:id="rId6" display="https://www.insee.fr/fr/statistiques/4175605?sommaire=4175611&amp;geo=METRO-1"/>
+    <hyperlink ref="B44" r:id="rId1"/>
+    <hyperlink ref="C44" r:id="rId2"/>
+    <hyperlink ref="E44" r:id="rId3"/>
+    <hyperlink ref="F44" r:id="rId4"/>
+    <hyperlink ref="G44" r:id="rId5"/>
+    <hyperlink ref="H44" r:id="rId6"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>